--- a/Revisiones/Revisiones.xlsx
+++ b/Revisiones/Revisiones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\NetBeansProjects\GituHub\ImprentaSoluciones\Revisiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD36911-258C-456E-9638-D879C64DE787}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241019CE-66BD-4E66-B16F-8DB13CD08E6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D3B94AEF-2A3F-4005-A373-7D51D4B82D1D}"/>
   </bookViews>
@@ -372,7 +372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -419,7 +419,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -427,13 +426,15 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -772,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D380BA2-8FD3-444F-9CB4-D1D45589F1D9}">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -827,13 +828,13 @@
       <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="21" t="s">
+      <c r="C8" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>7</v>
       </c>
       <c r="K8" s="1" t="s">
@@ -861,7 +862,7 @@
       <c r="B10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="11" t="s">
@@ -875,7 +876,7 @@
       <c r="B11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="11" t="s">
@@ -889,7 +890,7 @@
       <c r="B12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="11" t="s">
@@ -903,7 +904,7 @@
       <c r="B13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="11" t="s">
@@ -917,7 +918,7 @@
       <c r="B14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="11" t="s">
@@ -931,7 +932,7 @@
       <c r="B15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="11" t="s">
@@ -945,7 +946,7 @@
       <c r="B16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="11" t="s">
@@ -959,7 +960,7 @@
       <c r="B17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="11" t="s">
@@ -973,7 +974,7 @@
       <c r="B18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="11" t="s">
@@ -987,7 +988,7 @@
       <c r="B19" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="11" t="s">
@@ -1001,7 +1002,7 @@
       <c r="B20" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="11" t="s">
@@ -1015,7 +1016,7 @@
       <c r="B21" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="11" t="s">
@@ -1029,7 +1030,7 @@
       <c r="B22" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="11" t="s">
@@ -1043,7 +1044,7 @@
       <c r="B23" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="11" t="s">
@@ -1057,7 +1058,7 @@
       <c r="B24" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="11" t="s">
@@ -1071,7 +1072,7 @@
       <c r="B25" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="11" t="s">
@@ -1085,7 +1086,7 @@
       <c r="B26" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="11" t="s">
@@ -1099,7 +1100,7 @@
       <c r="B27" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="11" t="s">
@@ -1113,7 +1114,7 @@
       <c r="B28" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D28" s="11" t="s">
@@ -1127,7 +1128,7 @@
       <c r="B29" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D29" s="11" t="s">
@@ -1141,7 +1142,7 @@
       <c r="B30" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="11" t="s">
@@ -1155,7 +1156,7 @@
       <c r="B31" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="11" t="s">
@@ -1169,7 +1170,7 @@
       <c r="B32" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D32" s="11" t="s">
@@ -1183,7 +1184,7 @@
       <c r="B33" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D33" s="11" t="s">
@@ -1197,7 +1198,7 @@
       <c r="B34" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D34" s="11" t="s">
@@ -1211,7 +1212,7 @@
       <c r="B35" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D35" s="11" t="s">
@@ -1225,7 +1226,7 @@
       <c r="B36" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="11" t="s">
@@ -1239,7 +1240,7 @@
       <c r="B37" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D37" s="11" t="s">
@@ -1253,7 +1254,7 @@
       <c r="B38" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="24" t="s">
         <v>7</v>
       </c>
       <c r="D38" s="12" t="s">
@@ -1261,92 +1262,92 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="25"/>
+      <c r="A39" s="23"/>
       <c r="B39" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="25"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="25"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
+      <c r="A41" s="23"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="25"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
+      <c r="A42" s="23"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="25"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
+      <c r="A43" s="23"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="25"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
+      <c r="A44" s="23"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="25"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
+      <c r="A45" s="23"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="25"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
+      <c r="A46" s="23"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="25"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
+      <c r="A47" s="23"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="25"/>
-      <c r="B48" s="23"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
+      <c r="A48" s="23"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="25"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
+      <c r="A49" s="23"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="25"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
+      <c r="A50" s="23"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="25"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
+      <c r="A51" s="23"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="25"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
+      <c r="A52" s="23"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="pFgmBgviY5H2sCQFdF6dnx+Q7IN6KKW5L36iwO/MZn+RwEayT4mXwg5s3y5fV1ZGu/EAlNqnE0hgiKSXmNm6JA==" saltValue="cMAL0gGmDEFYAPuHO5UvEw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="1wY/zOdLYn6TCyYcoZyrOle3geZrDMU6CQ26c2FKni9o0Bvq1bCrhyCEjY548Fh0hsiXlnsD4uNdOMkshyaVQA==" saltValue="TXcv8k6OujqHFrmkUKJxyQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D52">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>

--- a/Revisiones/Revisiones.xlsx
+++ b/Revisiones/Revisiones.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\NetBeansProjects\GituHub\ImprentaSoluciones\Revisiones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erika\Documents\NetBeansProjects\GituHub\Actualización Tecnologica\ImprentaSoluciones\Revisiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241019CE-66BD-4E66-B16F-8DB13CD08E6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D3B94AEF-2A3F-4005-A373-7D51D4B82D1D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Revisión 1" sheetId="1" r:id="rId1"/>
@@ -153,7 +152,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -770,11 +769,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D380BA2-8FD3-444F-9CB4-D1D45589F1D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1255,7 +1254,7 @@
         <v>38</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D38" s="12" t="s">
         <v>7</v>
@@ -1357,7 +1356,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D52" xr:uid="{F7D9FF31-AB1D-442E-8E05-E293EB93644D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D52">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>

--- a/Revisiones/Revisiones.xlsx
+++ b/Revisiones/Revisiones.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Revisión 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -772,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -848,7 +848,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>7</v>
@@ -862,7 +862,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>7</v>
@@ -876,7 +876,7 @@
         <v>17</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>7</v>
@@ -890,7 +890,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>7</v>
@@ -904,7 +904,7 @@
         <v>15</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>7</v>
@@ -918,7 +918,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>7</v>
@@ -932,7 +932,7 @@
         <v>19</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>7</v>
@@ -946,7 +946,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>7</v>
@@ -960,7 +960,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>7</v>
@@ -974,7 +974,7 @@
         <v>22</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>7</v>
@@ -988,7 +988,7 @@
         <v>24</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>7</v>
@@ -1044,7 +1044,7 @@
         <v>15</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>7</v>
@@ -1058,7 +1058,7 @@
         <v>19</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>7</v>
@@ -1072,7 +1072,7 @@
         <v>15</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>7</v>
@@ -1086,7 +1086,7 @@
         <v>30</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>7</v>
@@ -1128,7 +1128,7 @@
         <v>16</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>7</v>
@@ -1142,7 +1142,7 @@
         <v>19</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>7</v>
@@ -1156,7 +1156,7 @@
         <v>15</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>7</v>
@@ -1170,7 +1170,7 @@
         <v>19</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>7</v>
@@ -1184,7 +1184,7 @@
         <v>15</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>7</v>
@@ -1212,7 +1212,7 @@
         <v>16</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>7</v>
@@ -1226,7 +1226,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>7</v>
@@ -1240,7 +1240,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>7</v>

--- a/Revisiones/Revisiones.xlsx
+++ b/Revisiones/Revisiones.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erika\Documents\NetBeansProjects\GituHub\Actualización Tecnologica\ImprentaSoluciones\Revisiones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\NetBeansProjects\GituHub\ImprentaSoluciones\Revisiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A62A2E-CF27-44E0-94F6-B49527FF578A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revisión 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Revisión 2" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="96">
   <si>
     <t>Detalle</t>
   </si>
@@ -147,12 +149,183 @@
   </si>
   <si>
     <t>No tiene título la ventana.</t>
+  </si>
+  <si>
+    <t>Poner siempre un RadioButton seleccionado por defecto desde el inicio.</t>
+  </si>
+  <si>
+    <t>Producto común</t>
+  </si>
+  <si>
+    <t>El SÍ de afirmación lleva acento en la I (RadioButton).</t>
+  </si>
+  <si>
+    <t>El botón MAYOREO no abre ninguna ventana.</t>
+  </si>
+  <si>
+    <t>Agregar filtro a la tabla.</t>
+  </si>
+  <si>
+    <t>Aún no hace nada al dar clic en aceptar.</t>
+  </si>
+  <si>
+    <t>Si lo cierro y lo vuelvo a abrir me siguen apareciendo los datos que había cargado.</t>
+  </si>
+  <si>
+    <t>Favor de cargar la tabla con datos de prueba.</t>
+  </si>
+  <si>
+    <t>Hacer funcional el botón de AGREGAR.</t>
+  </si>
+  <si>
+    <t>Entrada de dinero</t>
+  </si>
+  <si>
+    <t>Hacer funcional el botón de GUARDAR.</t>
+  </si>
+  <si>
+    <t>Entradas pasadas</t>
+  </si>
+  <si>
+    <t>Salida de dinero</t>
+  </si>
+  <si>
+    <t>Salidas pasadas</t>
+  </si>
+  <si>
+    <t>Al cerrar y volver a abrir la ventana, el filtro no se reinicia.</t>
+  </si>
+  <si>
+    <t>Debe haber un RadioButton seleccionado por defecto.</t>
+  </si>
+  <si>
+    <t>Los títulos de la tabla deben ser palabras separadas y en tipo oración.</t>
+  </si>
+  <si>
+    <t>Los textos de los RadioButton deben ser tipo oración.</t>
+  </si>
+  <si>
+    <t>Agregar productos</t>
+  </si>
+  <si>
+    <t>Validar el JTextField de PRECIO MAYOREO, ya que me acepta letras.</t>
+  </si>
+  <si>
+    <t>Validar el JTextField de PRECIO, ya que me acepta letras.</t>
+  </si>
+  <si>
+    <t>Validar el JTextField de CANTIDAD DE MAYOREO, ya que me acepta letras.</t>
+  </si>
+  <si>
+    <t>No agrega productos.</t>
+  </si>
+  <si>
+    <t>Si dejo campos vacíos al agregar no me lo indica, hay que validar.</t>
+  </si>
+  <si>
+    <t>Si le doy en CANCELAR o cierro la ventana y la vuelvo a abrir me deja los datos que ingresé anteriormente, hay que reiniciar los campos.</t>
+  </si>
+  <si>
+    <t>Modificar producto</t>
+  </si>
+  <si>
+    <t>Si abro la ventana y no hay ningún producto seleccionado, no me indica error.</t>
+  </si>
+  <si>
+    <t>No valida los campos de PRECIO, PRECIO MAYOREO ni CANTIDAD DE MAYOREO ya que puedo agregar textos.</t>
+  </si>
+  <si>
+    <t>No valida campos vacíos.</t>
+  </si>
+  <si>
+    <t>No modifica.</t>
+  </si>
+  <si>
+    <t>El ComboBox TIPO DE VENTA tiene un espacio de más.</t>
+  </si>
+  <si>
+    <t>El ComboBox PROVEEDOR tiene un espacio de más.</t>
+  </si>
+  <si>
+    <t>El ComboBox BUSCAR PRODUCTO tiene un campo de más.</t>
+  </si>
+  <si>
+    <t>El campo CANTIDAD no está validado, puedo ingresar texto.</t>
+  </si>
+  <si>
+    <t>Mantener el título de la ventana como tipo oración.</t>
+  </si>
+  <si>
+    <t>El ComboBox es demasiado pequeño.</t>
+  </si>
+  <si>
+    <t>Proveedores</t>
+  </si>
+  <si>
+    <t>Siempre debe haber un RadioButton seleccionado por default.</t>
+  </si>
+  <si>
+    <t>Agregar proveedor</t>
+  </si>
+  <si>
+    <t>El campo TELÉFONO no está validado, puedo ingresar texto.</t>
+  </si>
+  <si>
+    <t>Aún no agrega.</t>
+  </si>
+  <si>
+    <t>Modificar proveedor</t>
+  </si>
+  <si>
+    <t>Aún no modifica.</t>
+  </si>
+  <si>
+    <t>No marca error el botón que abre la ventana de MODIFICAR cuando no tengo seleccionado ningún proveedor. Hay que validar.</t>
+  </si>
+  <si>
+    <t>Total de observaciones:</t>
+  </si>
+  <si>
+    <t>Total de corregidos:</t>
+  </si>
+  <si>
+    <t>Calificación al momento:</t>
+  </si>
+  <si>
+    <t>El ComboBox es muy angosto.</t>
+  </si>
+  <si>
+    <t>El JTextField TOTAL debe estar bloqueado ya que es un cálculo automático.</t>
+  </si>
+  <si>
+    <t>El JTextField DESCUENTO no está validado, puedo escribir textos.</t>
+  </si>
+  <si>
+    <t>Duda, ¿las cotizaciones se importan o se exportan?. ¿A qué se refieren con importar?</t>
+  </si>
+  <si>
+    <t>Cotizaciones&gt;Buscar producto</t>
+  </si>
+  <si>
+    <t>Cargar el ComboBox.</t>
+  </si>
+  <si>
+    <t>Agregar los títulos a la tabla.</t>
+  </si>
+  <si>
+    <t>Agregar datos de prueba.</t>
+  </si>
+  <si>
+    <t>Todavía no agrega.</t>
+  </si>
+  <si>
+    <t>Próxima revisión: 16 de abril</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -185,7 +358,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -367,11 +540,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -412,9 +637,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -435,11 +657,98 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -769,17 +1078,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="2"/>
     <col min="2" max="2" width="49.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="30"/>
+    <col min="4" max="4" width="11.42578125" style="32"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -813,10 +1125,10 @@
       <c r="B7" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="33" t="s">
         <v>2</v>
       </c>
       <c r="K7" s="1" t="s">
@@ -827,14 +1139,14 @@
       <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>7</v>
+      <c r="C8" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>6</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>7</v>
@@ -851,7 +1163,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -865,7 +1177,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -879,7 +1191,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -893,7 +1205,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -907,7 +1219,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -921,7 +1233,7 @@
         <v>6</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -935,7 +1247,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -949,7 +1261,7 @@
         <v>6</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -963,7 +1275,7 @@
         <v>6</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -977,7 +1289,7 @@
         <v>6</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -991,7 +1303,7 @@
         <v>6</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1047,7 +1359,7 @@
         <v>6</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1061,7 +1373,7 @@
         <v>6</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1075,7 +1387,7 @@
         <v>6</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1089,7 +1401,7 @@
         <v>6</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -1103,7 +1415,7 @@
         <v>7</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -1117,7 +1429,7 @@
         <v>7</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1131,7 +1443,7 @@
         <v>6</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1145,7 +1457,7 @@
         <v>6</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1159,7 +1471,7 @@
         <v>6</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1173,10 +1485,10 @@
         <v>6</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>33</v>
       </c>
@@ -1187,10 +1499,10 @@
         <v>6</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>33</v>
       </c>
@@ -1204,7 +1516,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>33</v>
       </c>
@@ -1215,10 +1527,10 @@
         <v>6</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>33</v>
       </c>
@@ -1229,10 +1541,16 @@
         <v>6</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F36" t="s">
+        <v>83</v>
+      </c>
+      <c r="G36">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>33</v>
       </c>
@@ -1243,120 +1561,1349 @@
         <v>6</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="F37" t="s">
+        <v>84</v>
+      </c>
+      <c r="G37">
+        <f>COUNTIF(D8:D38,"Sí")</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="24" t="s">
+      <c r="C38" s="23" t="s">
         <v>6</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="23"/>
+        <v>6</v>
+      </c>
+      <c r="F38" t="s">
+        <v>85</v>
+      </c>
+      <c r="G38" s="29">
+        <f>G37/G36*10</f>
+        <v>8.7096774193548381</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="22"/>
       <c r="B39" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="23"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="23"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="23"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="23"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="23"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="23"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="23"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="21"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="22"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="21"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="22"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="21"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="22"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="21"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="22"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="21"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="22"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="21"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="22"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="21"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="22"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="21"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="22"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="21"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="22"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="21"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="23"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
+      <c r="A49" s="22"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="21"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="23"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
+      <c r="A50" s="22"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="21"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="23"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
+      <c r="A51" s="22"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="21"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="23"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
+      <c r="A52" s="22"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="21"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1wY/zOdLYn6TCyYcoZyrOle3geZrDMU6CQ26c2FKni9o0Bvq1bCrhyCEjY548Fh0hsiXlnsD4uNdOMkshyaVQA==" saltValue="TXcv8k6OujqHFrmkUKJxyQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="58zs8cY1ZS5gBpvnJs1b46EgCtxmO8zf3/++4G00TnTZQZ3FV6HBFXjrbPv3qA3K2VhQp9HkfB9ayVM/nsR92A==" saltValue="zvzG3BUvjfl1HtT3B5Y9jg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D52">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D52">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D52" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>$K$7:$K$8</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD346315-07D9-48D8-A9BA-1B854D99FD77}">
+  <dimension ref="A1:K94"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="2"/>
+    <col min="2" max="2" width="49.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="30"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B52" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B53" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B54" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B55" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B56" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B57" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B58" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B60" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B61" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A64" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B64" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B65" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B66" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B67" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B69" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B70" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B71" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B72" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B73" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A74" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B74" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A75" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B75" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A76" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B76" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A77" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B77" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77" t="s">
+        <v>83</v>
+      </c>
+      <c r="G77">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A78" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B78" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F78" t="s">
+        <v>84</v>
+      </c>
+      <c r="G78">
+        <f>COUNTIF(D8:D79,"Sí")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C79" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79" t="s">
+        <v>85</v>
+      </c>
+      <c r="G79" s="29">
+        <f>G78/G77*10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="22"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="27"/>
+      <c r="D80" s="21"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="22"/>
+      <c r="B81" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C81" s="27"/>
+      <c r="D81" s="21"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="22"/>
+      <c r="B82" s="20"/>
+      <c r="C82" s="27"/>
+      <c r="D82" s="21"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="22"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="27"/>
+      <c r="D83" s="21"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="22"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="27"/>
+      <c r="D84" s="21"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="22"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="21"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="22"/>
+      <c r="B86" s="20"/>
+      <c r="C86" s="27"/>
+      <c r="D86" s="21"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="22"/>
+      <c r="B87" s="20"/>
+      <c r="C87" s="27"/>
+      <c r="D87" s="21"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="22"/>
+      <c r="B88" s="20"/>
+      <c r="C88" s="27"/>
+      <c r="D88" s="21"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="22"/>
+      <c r="B89" s="20"/>
+      <c r="C89" s="27"/>
+      <c r="D89" s="21"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="22"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="27"/>
+      <c r="D90" s="21"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="22"/>
+      <c r="B91" s="20"/>
+      <c r="C91" s="27"/>
+      <c r="D91" s="21"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="22"/>
+      <c r="B92" s="20"/>
+      <c r="C92" s="27"/>
+      <c r="D92" s="21"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="22"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="21"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="22"/>
+      <c r="B94" s="20"/>
+      <c r="C94" s="27"/>
+      <c r="D94" s="21"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="91xX1Q03LtvKF/8JwCraG5DjXE5DNidCwXV38iniBKHlBXnjsqyTPkEQjvf8WSAK9uet+9ge1rFU/VKIxX9Egw==" saltValue="4HFekG5C7YyTnz3ZGl+jlQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <conditionalFormatting sqref="C8:D40 C44:D67 C69:D94">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Sí">
+      <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:D43">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Sí">
+      <formula>NOT(ISERROR(SEARCH("Sí",C41)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",C41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68:D68">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Sí">
+      <formula>NOT(ISERROR(SEARCH("Sí",C68)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",C68)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D94" xr:uid="{DE1B8ADD-EB1D-45C5-B91F-17D387C69D5B}">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>

--- a/Revisiones/Revisiones.xlsx
+++ b/Revisiones/Revisiones.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\NetBeansProjects\GituHub\ImprentaSoluciones\Revisiones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Avril\Documents\NetBeansProjects\GitHub\ImprentaSoluciones\Revisiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A62A2E-CF27-44E0-94F6-B49527FF578A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Revisión 1" sheetId="1" r:id="rId1"/>
@@ -325,7 +324,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1078,7 +1077,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView topLeftCell="A32" workbookViewId="0">
@@ -1688,7 +1687,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D52" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D52">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -1698,11 +1697,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD346315-07D9-48D8-A9BA-1B854D99FD77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2903,7 +2902,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D94" xr:uid="{DE1B8ADD-EB1D-45C5-B91F-17D387C69D5B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D94">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>

--- a/Revisiones/Revisiones.xlsx
+++ b/Revisiones/Revisiones.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Avril\Documents\NetBeansProjects\GitHub\ImprentaSoluciones\Revisiones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\NetBeansProjects\GituHub\ImprentaSoluciones\Revisiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8622EB-46DA-4406-87B3-AEDC4CE9C8DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revisión 1" sheetId="1" r:id="rId1"/>
     <sheet name="Revisión 2" sheetId="3" r:id="rId2"/>
+    <sheet name="Revisión 3 y 4" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="131">
   <si>
     <t>Detalle</t>
   </si>
@@ -319,12 +321,117 @@
   </si>
   <si>
     <t>Próxima revisión: 16 de abril</t>
+  </si>
+  <si>
+    <t>Proyecto</t>
+  </si>
+  <si>
+    <t>Asegúrense de que los PATH de las librerías sean RELAITVE.</t>
+  </si>
+  <si>
+    <t>Agregar filtro a la tabla (Ticket 1).</t>
+  </si>
+  <si>
+    <t>El botón AGREGAR PRODUCTO no está validado contra campos vacíos. Debe indicarme que debo tener un código escrito o que dicho código no se ha encontrado.</t>
+  </si>
+  <si>
+    <t>El botón AGREGAR PRODUCTO no está validado para que sólo acepte níumeros. Puedo escribir letras.</t>
+  </si>
+  <si>
+    <t>Agregué un producto de código 1234567890, inexistente, y lo agregó a la tabla.</t>
+  </si>
+  <si>
+    <t>Cuando agrego el pago y luego el descuento hace el cálculo, pero si cambio el pago ya no me vuelve a calcular el total.</t>
+  </si>
+  <si>
+    <t>Al realizar una venta no está validado contra campos vacíos, si dejo uno vacío me marca error por consola, pero a nivel usuario no me lo muestra.</t>
+  </si>
+  <si>
+    <t>Se supone que el descuento se le DESCUENTA al total, me lo están sumando.</t>
+  </si>
+  <si>
+    <t>Cobrar</t>
+  </si>
+  <si>
+    <t>El campo PAGO CON no está validado. Puedo escribir letras.</t>
+  </si>
+  <si>
+    <t>El campo DESCUENTO no está validado. Puedo escribir letras.</t>
+  </si>
+  <si>
+    <t>El botón COBRAR E IMPRIMIR no hace nada aún.</t>
+  </si>
+  <si>
+    <t>Si cierro y vuelvo a abrir la ventana no me reinicia los campos.</t>
+  </si>
+  <si>
+    <t>Los títulos de la tabla se pierden.</t>
+  </si>
+  <si>
+    <t>Ver ventas</t>
+  </si>
+  <si>
+    <t>¿Por qué hay un filtro de NOMBRE en las ventas?</t>
+  </si>
+  <si>
+    <t>Los RadioButtons no están dentro de ningún RadioGroup.</t>
+  </si>
+  <si>
+    <t>El ComboBox PROVEEDOR no está cargado.</t>
+  </si>
+  <si>
+    <t>El campo COSTO no está validado, puedo ingresar texto.</t>
+  </si>
+  <si>
+    <t>El campo VENTA no está validado, puedo ingresar texto.</t>
+  </si>
+  <si>
+    <t>El campo MAYOREO no está validado, puedo ingresar texto.</t>
+  </si>
+  <si>
+    <t>El texto BUSCAR PRODUCTO debe ser tipo oración.</t>
+  </si>
+  <si>
+    <t>Cuidado con el tamaño de la ventana, se ve un poco de gris.</t>
+  </si>
+  <si>
+    <t>Teléfono lleva acento en la segunda E.</t>
+  </si>
+  <si>
+    <t>No valida campos vacíos. D hecho, agregué un proveedor completamente vacío.</t>
+  </si>
+  <si>
+    <t>Aún no carga la información del proveedor.</t>
+  </si>
+  <si>
+    <t>Mímino lleva acento en la I.</t>
+  </si>
+  <si>
+    <t>Exporté pero no me creó ningún documento.</t>
+  </si>
+  <si>
+    <t>Cuando exporto una cotización no me reinicia la tabla.</t>
+  </si>
+  <si>
+    <t>Ver cotizaciones</t>
+  </si>
+  <si>
+    <t>El ComboBox tiene un campo de más al final.</t>
+  </si>
+  <si>
+    <t>El botón dice Cancelar en lugar de CANCELAR.</t>
+  </si>
+  <si>
+    <t>Corte</t>
+  </si>
+  <si>
+    <t>Aún no imprime.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -687,7 +794,67 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1077,11 +1244,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1316,7 +1483,7 @@
         <v>7</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1330,7 +1497,7 @@
         <v>7</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1344,7 +1511,7 @@
         <v>7</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1512,7 +1679,7 @@
         <v>7</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1567,7 +1734,7 @@
       </c>
       <c r="G37">
         <f>COUNTIF(D8:D38,"Sí")</f>
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1588,7 +1755,7 @@
       </c>
       <c r="G38" s="29">
         <f>G37/G36*10</f>
-        <v>8.7096774193548381</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1677,17 +1844,17 @@
       <c r="D52" s="21"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="58zs8cY1ZS5gBpvnJs1b46EgCtxmO8zf3/++4G00TnTZQZ3FV6HBFXjrbPv3qA3K2VhQp9HkfB9ayVM/nsR92A==" saltValue="zvzG3BUvjfl1HtT3B5Y9jg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ExBnjCEjKQTUupiVTQh+jeFV2HTXcN5ibqV427c8n/hZ09/3wskK1GlZTMtr8hBJRoijkdKryjH7X5XeOVLXzg==" saltValue="2nfvN8mBwwRqkyJE889YPQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D52">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D52">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D52" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -1697,11 +1864,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1764,7 +1931,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>7</v>
@@ -1781,7 +1948,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1865,7 +2032,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1977,7 +2144,7 @@
         <v>7</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1991,7 +2158,7 @@
         <v>7</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2047,7 +2214,7 @@
         <v>7</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2061,7 +2228,7 @@
         <v>7</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2145,7 +2312,7 @@
         <v>7</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2271,7 +2438,7 @@
         <v>7</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2313,7 +2480,7 @@
         <v>7</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2327,7 +2494,7 @@
         <v>7</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2355,7 +2522,7 @@
         <v>7</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2369,7 +2536,7 @@
         <v>7</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2397,7 +2564,7 @@
         <v>7</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2453,7 +2620,7 @@
         <v>7</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2481,7 +2648,7 @@
         <v>7</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2565,7 +2732,7 @@
         <v>7</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2579,7 +2746,7 @@
         <v>7</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2593,7 +2760,7 @@
         <v>7</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2621,7 +2788,7 @@
         <v>7</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2649,7 +2816,7 @@
         <v>7</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2691,7 +2858,7 @@
         <v>7</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -2705,7 +2872,7 @@
         <v>7</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -2733,7 +2900,7 @@
         <v>7</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F77" t="s">
         <v>83</v>
@@ -2760,7 +2927,7 @@
       </c>
       <c r="G78">
         <f>COUNTIF(D8:D79,"Sí")</f>
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2781,7 +2948,7 @@
       </c>
       <c r="G79" s="29">
         <f>G78/G77*10</f>
-        <v>0</v>
+        <v>3.333333333333333</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -2876,8 +3043,1377 @@
       <c r="D94" s="21"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="91xX1Q03LtvKF/8JwCraG5DjXE5DNidCwXV38iniBKHlBXnjsqyTPkEQjvf8WSAK9uet+9ge1rFU/VKIxX9Egw==" saltValue="4HFekG5C7YyTnz3ZGl+jlQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="W0hex40s7Jyco3wfTHDBDKB6YQbZs8Oi8ULu1gCkj870B2VDqqaXEkFIzip1htG48leYRB11wKziP29LuoXvCw==" saltValue="Lz5sFjeOTVyZESBZzOzEkw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D40 C44:D67 C69:D94">
+    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="Sí">
+      <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:D43">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Sí">
+      <formula>NOT(ISERROR(SEARCH("Sí",C41)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",C41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68:D68">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Sí">
+      <formula>NOT(ISERROR(SEARCH("Sí",C68)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",C68)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D94" xr:uid="{00000000-0002-0000-0100-000000000000}">
+      <formula1>$K$7:$K$8</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F242836-96F4-4AED-82D4-B1723195F9F7}">
+  <dimension ref="A1:K105"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="2"/>
+    <col min="2" max="2" width="49.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="30"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A73" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A74" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A83" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A85" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A86" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A87" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A88" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F88" t="s">
+        <v>83</v>
+      </c>
+      <c r="G88">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A89" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F89" t="s">
+        <v>84</v>
+      </c>
+      <c r="G89">
+        <f>COUNTIF(D8:D90,"Sí")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C90" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90" t="s">
+        <v>85</v>
+      </c>
+      <c r="G90" s="29">
+        <f>G89/G88*10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="22"/>
+      <c r="B91" s="20"/>
+      <c r="C91" s="27"/>
+      <c r="D91" s="21"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="22"/>
+      <c r="B92" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C92" s="27"/>
+      <c r="D92" s="21"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="22"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="21"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="22"/>
+      <c r="B94" s="20"/>
+      <c r="C94" s="27"/>
+      <c r="D94" s="21"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="22"/>
+      <c r="B95" s="20"/>
+      <c r="C95" s="27"/>
+      <c r="D95" s="21"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="22"/>
+      <c r="C96" s="27"/>
+      <c r="D96" s="21"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="22"/>
+      <c r="B97" s="20"/>
+      <c r="C97" s="27"/>
+      <c r="D97" s="21"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="22"/>
+      <c r="B98" s="20"/>
+      <c r="C98" s="27"/>
+      <c r="D98" s="21"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="22"/>
+      <c r="B99" s="20"/>
+      <c r="C99" s="27"/>
+      <c r="D99" s="21"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="22"/>
+      <c r="B100" s="20"/>
+      <c r="C100" s="27"/>
+      <c r="D100" s="21"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="22"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="27"/>
+      <c r="D101" s="21"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="22"/>
+      <c r="B102" s="20"/>
+      <c r="C102" s="27"/>
+      <c r="D102" s="21"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="22"/>
+      <c r="B103" s="20"/>
+      <c r="C103" s="27"/>
+      <c r="D103" s="21"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="22"/>
+      <c r="B104" s="20"/>
+      <c r="C104" s="27"/>
+      <c r="D104" s="21"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="22"/>
+      <c r="B105" s="20"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="21"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="CdpY0uYQLk60iIojEda39a+26wY4hfr1gJR05jHvTGa3ogu8b9xBIPKOC2O4Mcys6qjIXc3YF8bIPRMJ4FpOlg==" saltValue="Bw/a/hSZ9PYnJqdY2hMflw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <conditionalFormatting sqref="C8:D40 C44:D67 C69:D105">
     <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
@@ -2902,7 +4438,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D94">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D105" xr:uid="{18CAE7F3-AF13-4FD4-AF91-4D62FDE9FF88}">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>

--- a/Revisiones/Revisiones.xlsx
+++ b/Revisiones/Revisiones.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\NetBeansProjects\GituHub\ImprentaSoluciones\Revisiones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Avril\Documents\NetBeansProjects\GitHub\ImprentaSoluciones\Revisiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8622EB-46DA-4406-87B3-AEDC4CE9C8DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Revisión 1" sheetId="1" r:id="rId1"/>
@@ -22,12 +21,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -431,7 +424,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -946,6 +939,109 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>690562</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CuadroTexto 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776787" y="2057400"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>690562</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CuadroTexto 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776787" y="2057400"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1244,11 +1340,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1309,7 +1405,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>6</v>
@@ -1578,7 +1674,7 @@
         <v>19</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>6</v>
@@ -1592,7 +1688,7 @@
         <v>15</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>6</v>
@@ -1676,7 +1772,7 @@
         <v>34</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>6</v>
@@ -1854,7 +1950,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D52" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D52">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -1864,11 +1960,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="H72" sqref="H72"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2917,7 +3013,7 @@
         <v>94</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D78" s="11" t="s">
         <v>7</v>
@@ -3069,7 +3165,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D94" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D94">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -3079,11 +3175,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F242836-96F4-4AED-82D4-B1723195F9F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3188,7 +3284,7 @@
         <v>99</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>7</v>
@@ -3216,7 +3312,7 @@
         <v>101</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>7</v>
@@ -3230,7 +3326,7 @@
         <v>102</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>7</v>
@@ -3244,7 +3340,7 @@
         <v>103</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>7</v>
@@ -3258,7 +3354,7 @@
         <v>104</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>7</v>
@@ -3272,7 +3368,7 @@
         <v>106</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>7</v>
@@ -3286,7 +3382,7 @@
         <v>107</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>7</v>
@@ -3300,7 +3396,7 @@
         <v>108</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>7</v>
@@ -3314,7 +3410,7 @@
         <v>109</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>7</v>
@@ -3328,7 +3424,7 @@
         <v>44</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>7</v>
@@ -3342,7 +3438,7 @@
         <v>45</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>7</v>
@@ -3356,7 +3452,7 @@
         <v>73</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>7</v>
@@ -3384,7 +3480,7 @@
         <v>47</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>7</v>
@@ -3398,7 +3494,7 @@
         <v>53</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>7</v>
@@ -3412,7 +3508,7 @@
         <v>55</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>7</v>
@@ -3426,7 +3522,7 @@
         <v>110</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>7</v>
@@ -3440,7 +3536,7 @@
         <v>73</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>7</v>
@@ -3454,7 +3550,7 @@
         <v>109</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>7</v>
@@ -3468,7 +3564,7 @@
         <v>49</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>7</v>
@@ -3482,7 +3578,7 @@
         <v>49</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>7</v>
@@ -3496,7 +3592,7 @@
         <v>109</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>7</v>
@@ -3524,7 +3620,7 @@
         <v>73</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>7</v>
@@ -3552,7 +3648,7 @@
         <v>73</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>7</v>
@@ -3580,7 +3676,7 @@
         <v>112</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>7</v>
@@ -3594,7 +3690,7 @@
         <v>53</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>7</v>
@@ -3608,7 +3704,7 @@
         <v>54</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>7</v>
@@ -3636,7 +3732,7 @@
         <v>55</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D43" s="11" t="s">
         <v>7</v>
@@ -3650,7 +3746,7 @@
         <v>113</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D44" s="11" t="s">
         <v>7</v>
@@ -3664,7 +3760,7 @@
         <v>59</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D45" s="11" t="s">
         <v>7</v>
@@ -3678,7 +3774,7 @@
         <v>58</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>7</v>
@@ -3692,7 +3788,7 @@
         <v>60</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>7</v>
@@ -3706,7 +3802,7 @@
         <v>62</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>7</v>
@@ -3720,7 +3816,7 @@
         <v>61</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>7</v>
@@ -3860,7 +3956,7 @@
         <v>71</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D59" s="11" t="s">
         <v>7</v>
@@ -3874,7 +3970,7 @@
         <v>72</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D60" s="11" t="s">
         <v>7</v>
@@ -3888,7 +3984,7 @@
         <v>115</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D61" s="11" t="s">
         <v>7</v>
@@ -3902,7 +3998,7 @@
         <v>116</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D62" s="11" t="s">
         <v>7</v>
@@ -3916,7 +4012,7 @@
         <v>117</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D63" s="11" t="s">
         <v>7</v>
@@ -3930,7 +4026,7 @@
         <v>118</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D64" s="11" t="s">
         <v>7</v>
@@ -3958,7 +4054,7 @@
         <v>119</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D66" s="11" t="s">
         <v>7</v>
@@ -3972,7 +4068,7 @@
         <v>76</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D67" s="11" t="s">
         <v>7</v>
@@ -4000,7 +4096,7 @@
         <v>120</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D69" s="11" t="s">
         <v>7</v>
@@ -4014,7 +4110,7 @@
         <v>73</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D70" s="11" t="s">
         <v>7</v>
@@ -4028,7 +4124,7 @@
         <v>121</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D71" s="11" t="s">
         <v>7</v>
@@ -4042,7 +4138,7 @@
         <v>78</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D72" s="11" t="s">
         <v>7</v>
@@ -4112,7 +4208,7 @@
         <v>123</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D77" s="11" t="s">
         <v>7</v>
@@ -4140,7 +4236,7 @@
         <v>88</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D79" s="11" t="s">
         <v>7</v>
@@ -4154,7 +4250,7 @@
         <v>78</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D80" s="11" t="s">
         <v>7</v>
@@ -4182,7 +4278,7 @@
         <v>125</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D82" s="11" t="s">
         <v>7</v>
@@ -4196,7 +4292,7 @@
         <v>99</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D83" s="11" t="s">
         <v>7</v>
@@ -4224,7 +4320,7 @@
         <v>73</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D85" s="11" t="s">
         <v>7</v>
@@ -4238,7 +4334,7 @@
         <v>55</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D86" s="11" t="s">
         <v>7</v>
@@ -4252,7 +4348,7 @@
         <v>127</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D87" s="11" t="s">
         <v>7</v>
@@ -4286,7 +4382,7 @@
         <v>128</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D89" s="11" t="s">
         <v>7</v>
@@ -4438,11 +4534,12 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D105" xr:uid="{18CAE7F3-AF13-4FD4-AF91-4D62FDE9FF88}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D105">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Revisiones/Revisiones.xlsx
+++ b/Revisiones/Revisiones.xlsx
@@ -1343,8 +1343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1576,7 +1576,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>6</v>
@@ -1590,7 +1590,7 @@
         <v>15</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>6</v>
@@ -1604,7 +1604,7 @@
         <v>27</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>6</v>
@@ -1963,8 +1963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2024,7 +2024,7 @@
         <v>39</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>6</v>
@@ -2041,7 +2041,7 @@
         <v>41</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>6</v>
@@ -2083,7 +2083,7 @@
         <v>44</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>7</v>
@@ -2097,7 +2097,7 @@
         <v>45</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>7</v>
@@ -2111,7 +2111,7 @@
         <v>73</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>7</v>
@@ -2125,7 +2125,7 @@
         <v>46</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>6</v>
@@ -2153,7 +2153,7 @@
         <v>47</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>7</v>
@@ -2167,7 +2167,7 @@
         <v>53</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>7</v>
@@ -2181,7 +2181,7 @@
         <v>55</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>7</v>
@@ -2195,7 +2195,7 @@
         <v>73</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>7</v>
@@ -2209,7 +2209,7 @@
         <v>49</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>7</v>
@@ -2223,7 +2223,7 @@
         <v>49</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>7</v>
@@ -2237,7 +2237,7 @@
         <v>46</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>6</v>
@@ -2251,7 +2251,7 @@
         <v>46</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>6</v>
@@ -2265,7 +2265,7 @@
         <v>54</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>7</v>
@@ -2293,7 +2293,7 @@
         <v>55</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>7</v>
@@ -2307,7 +2307,7 @@
         <v>56</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>6</v>
@@ -2321,7 +2321,7 @@
         <v>46</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>6</v>
@@ -2335,7 +2335,7 @@
         <v>59</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>7</v>
@@ -2349,7 +2349,7 @@
         <v>58</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>7</v>
@@ -2363,7 +2363,7 @@
         <v>60</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>7</v>
@@ -2377,7 +2377,7 @@
         <v>62</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>7</v>
@@ -2391,7 +2391,7 @@
         <v>61</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>7</v>
@@ -2405,7 +2405,7 @@
         <v>63</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>6</v>
@@ -2531,7 +2531,7 @@
         <v>43</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D44" s="11" t="s">
         <v>6</v>
@@ -2545,7 +2545,7 @@
         <v>71</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D45" s="11" t="s">
         <v>7</v>
@@ -2559,7 +2559,7 @@
         <v>72</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>7</v>
@@ -2573,7 +2573,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>6</v>
@@ -2587,7 +2587,7 @@
         <v>46</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>6</v>
@@ -2615,7 +2615,7 @@
         <v>73</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D50" s="11" t="s">
         <v>6</v>
@@ -2629,7 +2629,7 @@
         <v>74</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>6</v>
@@ -2643,7 +2643,7 @@
         <v>76</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>7</v>
@@ -2657,7 +2657,7 @@
         <v>46</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>6</v>
@@ -2685,7 +2685,7 @@
         <v>73</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>7</v>
@@ -2699,7 +2699,7 @@
         <v>67</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>7</v>
@@ -2713,7 +2713,7 @@
         <v>63</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D57" s="11" t="s">
         <v>6</v>
@@ -2727,7 +2727,7 @@
         <v>78</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D58" s="11" t="s">
         <v>7</v>
@@ -2741,7 +2741,7 @@
         <v>79</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D59" s="11" t="s">
         <v>6</v>
@@ -2755,7 +2755,7 @@
         <v>67</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D60" s="11" t="s">
         <v>7</v>
@@ -2769,7 +2769,7 @@
         <v>78</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D61" s="11" t="s">
         <v>7</v>
@@ -2825,7 +2825,7 @@
         <v>86</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D65" s="11" t="s">
         <v>6</v>
@@ -2839,7 +2839,7 @@
         <v>46</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D66" s="11" t="s">
         <v>6</v>
@@ -2853,7 +2853,7 @@
         <v>43</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D67" s="11" t="s">
         <v>6</v>
@@ -2881,7 +2881,7 @@
         <v>87</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D69" s="11" t="s">
         <v>6</v>
@@ -2895,7 +2895,7 @@
         <v>88</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D70" s="11" t="s">
         <v>7</v>
@@ -2909,7 +2909,7 @@
         <v>76</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D71" s="11" t="s">
         <v>6</v>
@@ -2923,7 +2923,7 @@
         <v>78</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D72" s="11" t="s">
         <v>7</v>
@@ -2937,7 +2937,7 @@
         <v>89</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D73" s="11" t="s">
         <v>7</v>
@@ -2951,7 +2951,7 @@
         <v>73</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D74" s="11" t="s">
         <v>6</v>
@@ -2965,7 +2965,7 @@
         <v>91</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D75" s="11" t="s">
         <v>6</v>
@@ -2979,7 +2979,7 @@
         <v>92</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D76" s="11" t="s">
         <v>7</v>
@@ -2993,7 +2993,7 @@
         <v>93</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D77" s="11" t="s">
         <v>6</v>
@@ -3178,8 +3178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Revisiones/Revisiones.xlsx
+++ b/Revisiones/Revisiones.xlsx
@@ -3178,8 +3178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3830,7 +3830,7 @@
         <v>114</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D50" s="11" t="s">
         <v>7</v>

--- a/Revisiones/Revisiones.xlsx
+++ b/Revisiones/Revisiones.xlsx
@@ -1,32 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Avril\Documents\NetBeansProjects\GitHub\ImprentaSoluciones\Revisiones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\NetBeansProjects\GituHub\ImprentaSoluciones\Revisiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C299DB1E-3E75-4C23-BFD2-42B98EDE83A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revisión 1" sheetId="1" r:id="rId1"/>
     <sheet name="Revisión 2" sheetId="3" r:id="rId2"/>
     <sheet name="Revisión 3 y 4" sheetId="5" r:id="rId3"/>
+    <sheet name="Revisión flujo e inserts" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="158">
   <si>
     <t>Detalle</t>
   </si>
@@ -419,12 +427,93 @@
   </si>
   <si>
     <t>Aún no imprime.</t>
+  </si>
+  <si>
+    <t>Común</t>
+  </si>
+  <si>
+    <t>Si cierro la ventana con la X no me vacía los campos.</t>
+  </si>
+  <si>
+    <t>No está validado contra campos vacíos.</t>
+  </si>
+  <si>
+    <t>El campo PRECIO no está validado. Puedo escribir letras.</t>
+  </si>
+  <si>
+    <t>El campo CANTIDAD no está validado. Puedo escribir letras.</t>
+  </si>
+  <si>
+    <t>Mayoreo</t>
+  </si>
+  <si>
+    <t>Al darle clic me aparece que se ha activado, pero si le vuelvo a dar, se vuelve a activar.</t>
+  </si>
+  <si>
+    <t>El filtro aún no sirve.</t>
+  </si>
+  <si>
+    <t>¿Sólo hay un filtro?</t>
+  </si>
+  <si>
+    <t>El folio debería colocarse de manera automática.</t>
+  </si>
+  <si>
+    <t>Si busco un producto con un texto me marca error a nivel consola, no usuario. Sólo me permite buscar por ID.</t>
+  </si>
+  <si>
+    <t>El campo TOTAL no muestra ningún valor.</t>
+  </si>
+  <si>
+    <t>Revisen bien el cálculo del cambio porque maneja valores equivocados.</t>
+  </si>
+  <si>
+    <t>Al realizar la venta no me descuenta las existencias de mis productos.</t>
+  </si>
+  <si>
+    <t>Creo que aún no se imprimen los tickets.</t>
+  </si>
+  <si>
+    <t>Los campos de la tabla deben ser tipo oración.</t>
+  </si>
+  <si>
+    <t>MÍNIMO lleva acento en la primera I.</t>
+  </si>
+  <si>
+    <t>Producros bajos en inventario</t>
+  </si>
+  <si>
+    <t>La tabla aún no tiene un modelo.</t>
+  </si>
+  <si>
+    <t>Traté de hacer una, pero me dice que todos los campos deben ser llenados, aunque según yo, ya los llené todos.</t>
+  </si>
+  <si>
+    <t>El ComboBox tiene un campo de más.</t>
+  </si>
+  <si>
+    <t>Cuidado con las dimensiones de la ventana.</t>
+  </si>
+  <si>
+    <t>Mismo detalle que el BUSCAR PRODUCTO de VENTAS.</t>
+  </si>
+  <si>
+    <t>El botón MAYOREO no hace nada.</t>
+  </si>
+  <si>
+    <t>No reinicia los campos cerándolo de ninguna manera.</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>Diseño de app:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -695,7 +784,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -783,11 +872,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -953,7 +1083,13 @@
     <xdr:ext cx="65" cy="172227"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CuadroTexto 1"/>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1002,7 +1138,128 @@
     <xdr:ext cx="65" cy="172227"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CuadroTexto 2"/>
+        <xdr:cNvPr id="3" name="CuadroTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776787" y="2057400"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>690562</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD72BC36-EADE-4140-A13D-5F3D423C77F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776787" y="2057400"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>690562</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CuadroTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18C5C3EE-06E7-4191-9DEF-E4D508954E3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1340,10 +1597,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -1942,15 +2199,15 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ExBnjCEjKQTUupiVTQh+jeFV2HTXcN5ibqV427c8n/hZ09/3wskK1GlZTMtr8hBJRoijkdKryjH7X5XeOVLXzg==" saltValue="2nfvN8mBwwRqkyJE889YPQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D52">
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D52">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D52" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -1960,11 +2217,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2086,7 +2343,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2114,7 +2371,7 @@
         <v>6</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2156,7 +2413,7 @@
         <v>6</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2198,7 +2455,7 @@
         <v>6</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2212,7 +2469,7 @@
         <v>6</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2226,7 +2483,7 @@
         <v>6</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2268,7 +2525,7 @@
         <v>6</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2296,7 +2553,7 @@
         <v>6</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2338,7 +2595,7 @@
         <v>6</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2352,7 +2609,7 @@
         <v>6</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2366,7 +2623,7 @@
         <v>6</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2380,7 +2637,7 @@
         <v>6</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2394,7 +2651,7 @@
         <v>6</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2548,7 +2805,7 @@
         <v>6</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2562,7 +2819,7 @@
         <v>6</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -2646,7 +2903,7 @@
         <v>6</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2688,7 +2945,7 @@
         <v>6</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2702,7 +2959,7 @@
         <v>6</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2730,7 +2987,7 @@
         <v>6</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2898,7 +3155,7 @@
         <v>6</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2926,7 +3183,7 @@
         <v>6</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2940,7 +3197,7 @@
         <v>6</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -2982,7 +3239,7 @@
         <v>6</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -3023,7 +3280,7 @@
       </c>
       <c r="G78">
         <f>COUNTIF(D8:D79,"Sí")</f>
-        <v>24</v>
+        <v>47</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3044,7 +3301,7 @@
       </c>
       <c r="G79" s="29">
         <f>G78/G77*10</f>
-        <v>3.333333333333333</v>
+        <v>6.5277777777777777</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -3139,33 +3396,33 @@
       <c r="D94" s="21"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="W0hex40s7Jyco3wfTHDBDKB6YQbZs8Oi8ULu1gCkj870B2VDqqaXEkFIzip1htG48leYRB11wKziP29LuoXvCw==" saltValue="Lz5sFjeOTVyZESBZzOzEkw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="GLr5KGFMpjLmC05zZVm+dffjn5R5D3XioTiwvG+gychqmhxr7EmSco3Hzgws84q1W1UlK2o2bGZ7zqeNOwjpdg==" saltValue="zJDeF0Pvwjb2PCtqv38jGA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D40 C44:D67 C69:D94">
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:D43">
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:D68">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D94">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D94" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -3175,11 +3432,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3315,7 +3572,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3343,7 +3600,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3371,7 +3628,7 @@
         <v>6</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3385,7 +3642,7 @@
         <v>6</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3399,7 +3656,7 @@
         <v>6</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3413,7 +3670,7 @@
         <v>6</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3427,7 +3684,7 @@
         <v>6</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3455,7 +3712,7 @@
         <v>6</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3483,7 +3740,7 @@
         <v>6</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3525,7 +3782,7 @@
         <v>6</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3539,7 +3796,7 @@
         <v>6</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3567,7 +3824,7 @@
         <v>6</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3581,7 +3838,7 @@
         <v>6</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3623,7 +3880,7 @@
         <v>6</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3651,7 +3908,7 @@
         <v>6</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -3679,7 +3936,7 @@
         <v>6</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3707,7 +3964,7 @@
         <v>6</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -3735,7 +3992,7 @@
         <v>6</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3749,7 +4006,7 @@
         <v>6</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3763,7 +4020,7 @@
         <v>6</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3777,7 +4034,7 @@
         <v>6</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3791,7 +4048,7 @@
         <v>6</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3805,7 +4062,7 @@
         <v>6</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3819,7 +4076,7 @@
         <v>6</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3833,7 +4090,7 @@
         <v>6</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3959,7 +4216,7 @@
         <v>6</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3973,7 +4230,7 @@
         <v>6</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3987,7 +4244,7 @@
         <v>6</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4001,7 +4258,7 @@
         <v>6</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4015,7 +4272,7 @@
         <v>6</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -4029,7 +4286,7 @@
         <v>6</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -4057,7 +4314,7 @@
         <v>6</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4071,7 +4328,7 @@
         <v>6</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4099,7 +4356,7 @@
         <v>6</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4113,7 +4370,7 @@
         <v>6</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4127,7 +4384,7 @@
         <v>6</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4141,7 +4398,7 @@
         <v>6</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -4239,7 +4496,7 @@
         <v>6</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4253,7 +4510,7 @@
         <v>6</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4295,7 +4552,7 @@
         <v>6</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4323,7 +4580,7 @@
         <v>6</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -4351,7 +4608,7 @@
         <v>6</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -4385,14 +4642,14 @@
         <v>6</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F89" t="s">
         <v>84</v>
       </c>
       <c r="G89">
         <f>COUNTIF(D8:D90,"Sí")</f>
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4413,7 +4670,7 @@
       </c>
       <c r="G90" s="29">
         <f>G89/G88*10</f>
-        <v>0</v>
+        <v>5.1190476190476186</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -4508,33 +4765,863 @@
       <c r="D105" s="21"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="CdpY0uYQLk60iIojEda39a+26wY4hfr1gJR05jHvTGa3ogu8b9xBIPKOC2O4Mcys6qjIXc3YF8bIPRMJ4FpOlg==" saltValue="Bw/a/hSZ9PYnJqdY2hMflw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ytn5pghnxmPyOnJR40Isy+qA0P7oURCEwfImz+G37Zk+kFHoHM4EcF4nyt+iRfUZ14UAF6LB5EYeov3cI9ilMg==" saltValue="Dkh6mKhAJ7+aipK7V1Sh3A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D40 C44:D67 C69:D105">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:D43">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:D68">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D105">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D105" xr:uid="{00000000-0002-0000-0200-000000000000}">
+      <formula1>$K$7:$K$8</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24F88D8-74EC-4ACE-9394-822B49F3A6BD}">
+  <dimension ref="A1:K67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="J50" sqref="J50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="2"/>
+    <col min="2" max="2" width="49.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="30"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" t="s">
+        <v>83</v>
+      </c>
+      <c r="G50">
+        <v>84</v>
+      </c>
+      <c r="I50" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" t="s">
+        <v>156</v>
+      </c>
+      <c r="G51" s="34">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" t="s">
+        <v>85</v>
+      </c>
+      <c r="G52" s="29">
+        <f>40-(G50/4)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="22"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="21"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="22"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="21"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="22"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="21"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="22"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="21"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="22"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="21"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="22"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="21"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="22"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="21"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="22"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="21"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="22"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="21"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="22"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="21"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="22"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="21"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="22"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="21"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="22"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="21"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="22"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="21"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="22"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="21"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="awGp2EWssEyBXfwq6NJvuhXH7+QzrxnOhAwVZMPkPL68GU5VH4XhjmApQvdwp7Bcs3EK81BNlVlzLc8RbWI+dg==" saltValue="N+PSx0xJpfPylfxVk0ZT0w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <conditionalFormatting sqref="C8:D40 D13:D52 C9:C52 C44:D67">
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="Sí">
+      <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:D43">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Sí">
+      <formula>NOT(ISERROR(SEARCH("Sí",C41)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",C41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D67" xr:uid="{16E7B7EE-4AAD-428E-B898-C9A601FC9CF9}">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>

--- a/Revisiones/Revisiones.xlsx
+++ b/Revisiones/Revisiones.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\NetBeansProjects\GituHub\ImprentaSoluciones\Revisiones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Avril\Documents\NetBeansProjects\GitHub\ImprentaSoluciones\Revisiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C299DB1E-3E75-4C23-BFD2-42B98EDE83A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Revisión 1" sheetId="1" r:id="rId1"/>
@@ -513,7 +512,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1086,7 +1085,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1141,7 +1140,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1201,7 +1200,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD72BC36-EADE-4140-A13D-5F3D423C77F7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD72BC36-EADE-4140-A13D-5F3D423C77F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1256,7 +1255,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18C5C3EE-06E7-4191-9DEF-E4D508954E3F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18C5C3EE-06E7-4191-9DEF-E4D508954E3F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1597,10 +1596,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
+    <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -2207,7 +2206,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D52" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D52">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -2217,11 +2216,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3422,7 +3421,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D94" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D94">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -3432,11 +3431,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4791,7 +4790,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D105" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D105">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -4802,11 +4801,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24F88D8-74EC-4ACE-9394-822B49F3A6BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="J50" sqref="J50"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4867,7 +4866,7 @@
         <v>132</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>7</v>
@@ -5621,7 +5620,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D67" xr:uid="{16E7B7EE-4AAD-428E-B898-C9A601FC9CF9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D67">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>

--- a/Revisiones/Revisiones.xlsx
+++ b/Revisiones/Revisiones.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Avril\Documents\NetBeansProjects\GitHub\ImprentaSoluciones\Revisiones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erika\Documents\NetBeansProjects\GituHub\Actualización Tecnologica\ImprentaSoluciones\Revisiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Revisión 3 y 4" sheetId="5" r:id="rId3"/>
     <sheet name="Revisión flujo e inserts" sheetId="7" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -512,7 +512,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1085,7 +1085,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1140,7 +1140,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1200,7 +1200,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD72BC36-EADE-4140-A13D-5F3D423C77F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD72BC36-EADE-4140-A13D-5F3D423C77F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1255,7 +1255,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18C5C3EE-06E7-4191-9DEF-E4D508954E3F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18C5C3EE-06E7-4191-9DEF-E4D508954E3F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1599,7 +1599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -2219,8 +2219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2675,7 +2675,7 @@
         <v>65</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>7</v>
@@ -2689,7 +2689,7 @@
         <v>63</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>7</v>
@@ -2703,7 +2703,7 @@
         <v>66</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>7</v>
@@ -2745,7 +2745,7 @@
         <v>69</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>7</v>
@@ -2759,7 +2759,7 @@
         <v>70</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>7</v>
@@ -3053,7 +3053,7 @@
         <v>82</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D63" s="11" t="s">
         <v>7</v>
@@ -3067,7 +3067,7 @@
         <v>63</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D64" s="11" t="s">
         <v>7</v>
@@ -3434,8 +3434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4100,7 +4100,7 @@
         <v>65</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>7</v>
@@ -4114,7 +4114,7 @@
         <v>63</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>7</v>
@@ -4128,7 +4128,7 @@
         <v>66</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>7</v>
@@ -4170,7 +4170,7 @@
         <v>69</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>7</v>
@@ -4184,7 +4184,7 @@
         <v>70</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D57" s="11" t="s">
         <v>7</v>
@@ -4408,7 +4408,7 @@
         <v>82</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D73" s="11" t="s">
         <v>7</v>
@@ -4422,7 +4422,7 @@
         <v>63</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D74" s="11" t="s">
         <v>7</v>
@@ -4804,8 +4804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4883,7 +4883,7 @@
         <v>133</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>7</v>
@@ -4897,7 +4897,7 @@
         <v>134</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>7</v>
@@ -4911,7 +4911,7 @@
         <v>135</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>7</v>
@@ -4995,7 +4995,7 @@
         <v>132</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>7</v>
@@ -5023,7 +5023,7 @@
         <v>135</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>7</v>
@@ -5037,7 +5037,7 @@
         <v>132</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>7</v>
@@ -5149,7 +5149,7 @@
         <v>143</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>7</v>

--- a/Revisiones/Revisiones.xlsx
+++ b/Revisiones/Revisiones.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Revisión 1" sheetId="1" r:id="rId1"/>
@@ -1599,7 +1599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -2219,8 +2219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2535,7 +2535,7 @@
         <v>43</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>7</v>
@@ -2857,7 +2857,7 @@
         <v>43</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>7</v>
@@ -2927,7 +2927,7 @@
         <v>43</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D54" s="11" t="s">
         <v>7</v>
@@ -3290,7 +3290,7 @@
         <v>43</v>
       </c>
       <c r="C79" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D79" s="12" t="s">
         <v>7</v>
@@ -3434,8 +3434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="C90" sqref="C90"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4436,7 +4436,7 @@
         <v>81</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D75" s="11" t="s">
         <v>7</v>
@@ -4618,7 +4618,7 @@
         <v>43</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D88" s="11" t="s">
         <v>7</v>
@@ -4804,8 +4804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4967,7 +4967,7 @@
         <v>132</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>7</v>
@@ -4981,7 +4981,7 @@
         <v>135</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>7</v>
@@ -5009,7 +5009,7 @@
         <v>43</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>7</v>
@@ -5051,7 +5051,7 @@
         <v>43</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>7</v>
@@ -5065,7 +5065,7 @@
         <v>139</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>7</v>
@@ -5079,7 +5079,7 @@
         <v>43</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>7</v>
@@ -5121,7 +5121,7 @@
         <v>142</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>7</v>
@@ -5135,7 +5135,7 @@
         <v>146</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>7</v>
@@ -5219,7 +5219,7 @@
         <v>147</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>7</v>
@@ -5289,7 +5289,7 @@
         <v>132</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>7</v>
@@ -5317,7 +5317,7 @@
         <v>146</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>7</v>
@@ -5331,7 +5331,7 @@
         <v>150</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>7</v>
@@ -5345,7 +5345,7 @@
         <v>146</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>7</v>
@@ -5359,7 +5359,7 @@
         <v>138</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D43" s="11" t="s">
         <v>7</v>
@@ -5373,7 +5373,7 @@
         <v>151</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D44" s="11" t="s">
         <v>7</v>
@@ -5387,7 +5387,7 @@
         <v>132</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D45" s="11" t="s">
         <v>7</v>
@@ -5401,7 +5401,7 @@
         <v>152</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>7</v>
@@ -5415,7 +5415,7 @@
         <v>153</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>7</v>
@@ -5443,7 +5443,7 @@
         <v>155</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>7</v>
@@ -5457,7 +5457,7 @@
         <v>133</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D50" s="11" t="s">
         <v>7</v>
@@ -5480,7 +5480,7 @@
         <v>135</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>7</v>
@@ -5500,7 +5500,7 @@
         <v>134</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>7</v>

--- a/Revisiones/Revisiones.xlsx
+++ b/Revisiones/Revisiones.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Revisión 1" sheetId="1" r:id="rId1"/>
@@ -2219,8 +2219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2717,7 +2717,7 @@
         <v>67</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>7</v>
@@ -2731,7 +2731,7 @@
         <v>68</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>7</v>
@@ -3039,7 +3039,7 @@
         <v>81</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D62" s="11" t="s">
         <v>7</v>
@@ -3434,8 +3434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3862,7 +3862,7 @@
         <v>43</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>7</v>
@@ -3890,7 +3890,7 @@
         <v>43</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>7</v>
@@ -3918,7 +3918,7 @@
         <v>43</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>7</v>
@@ -3974,7 +3974,7 @@
         <v>43</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>7</v>
@@ -4142,7 +4142,7 @@
         <v>67</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D54" s="11" t="s">
         <v>7</v>
@@ -4156,7 +4156,7 @@
         <v>68</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>7</v>
@@ -4296,7 +4296,7 @@
         <v>43</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D65" s="11" t="s">
         <v>7</v>
@@ -4338,7 +4338,7 @@
         <v>43</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D68" s="11" t="s">
         <v>7</v>
@@ -4450,7 +4450,7 @@
         <v>122</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D76" s="11" t="s">
         <v>7</v>
@@ -4804,8 +4804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5191,7 +5191,7 @@
         <v>138</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>7</v>
@@ -5205,7 +5205,7 @@
         <v>43</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>7</v>
@@ -5261,7 +5261,7 @@
         <v>138</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>7</v>
@@ -5275,7 +5275,7 @@
         <v>43</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>7</v>

--- a/Revisiones/Revisiones.xlsx
+++ b/Revisiones/Revisiones.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erika\Documents\NetBeansProjects\GituHub\Actualización Tecnologica\ImprentaSoluciones\Revisiones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\NetBeansProjects\GituHub\ImprentaSoluciones\Revisiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91784415-71D0-472C-9F2D-47D4EEBB5892}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revisión 1" sheetId="1" r:id="rId1"/>
     <sheet name="Revisión 2" sheetId="3" r:id="rId2"/>
     <sheet name="Revisión 3 y 4" sheetId="5" r:id="rId3"/>
     <sheet name="Revisión flujo e inserts" sheetId="7" r:id="rId4"/>
+    <sheet name="Primera revisión de SELECT's" sheetId="8" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="164">
   <si>
     <t>Detalle</t>
   </si>
@@ -507,13 +509,34 @@
   </si>
   <si>
     <t>Diseño de app:</t>
+  </si>
+  <si>
+    <t>Calificación:</t>
+  </si>
+  <si>
+    <t>Creo que su columna de SOTCK y MÍNIMO están invertidas.</t>
+  </si>
+  <si>
+    <t>Todavía no me muestra los inactivos.</t>
+  </si>
+  <si>
+    <t>Todavía no carga la tabla.</t>
+  </si>
+  <si>
+    <t>El nombre del proveedor PAPEL se muestra en minúsculas mientras que todos los demás que se incerten se muestran en mayúsculas.</t>
+  </si>
+  <si>
+    <t>No me carga los productos nuevos que agrego.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -536,6 +559,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -545,7 +575,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -779,11 +809,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -872,11 +948,47 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1300,6 +1412,121 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>690562</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCDA3A5B-4725-4BC2-AAFA-AFA47A90D69C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776787" y="1866900"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>690562</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CuadroTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{828FDC0F-D8D1-4407-9882-8B69DC4CEB97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776787" y="1866900"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -1596,10 +1823,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -2198,15 +2425,15 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ExBnjCEjKQTUupiVTQh+jeFV2HTXcN5ibqV427c8n/hZ09/3wskK1GlZTMtr8hBJRoijkdKryjH7X5XeOVLXzg==" saltValue="2nfvN8mBwwRqkyJE889YPQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D52">
-    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D52">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D52" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -2216,11 +2443,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2356,7 +2583,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2440,7 +2667,7 @@
         <v>6</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2538,7 +2765,7 @@
         <v>6</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2678,7 +2905,7 @@
         <v>6</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2930,7 +3157,7 @@
         <v>6</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3279,7 +3506,7 @@
       </c>
       <c r="G78">
         <f>COUNTIF(D8:D79,"Sí")</f>
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3293,14 +3520,14 @@
         <v>6</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F79" t="s">
         <v>85</v>
       </c>
       <c r="G79" s="29">
         <f>G78/G77*10</f>
-        <v>6.5277777777777777</v>
+        <v>7.3611111111111116</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -3395,33 +3622,33 @@
       <c r="D94" s="21"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="GLr5KGFMpjLmC05zZVm+dffjn5R5D3XioTiwvG+gychqmhxr7EmSco3Hzgws84q1W1UlK2o2bGZ7zqeNOwjpdg==" saltValue="zJDeF0Pvwjb2PCtqv38jGA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="FdMxiKZ9ODgHOyhDRJ6S4XIcbWLCMxWcGMX181ZJ5PGO6XkN77B/60FvGozcgr6iIgz/2kNXxTzD8Xoc72Lslw==" saltValue="7uA5oLjkyHwxs/99Qa3wRw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D40 C44:D67 C69:D94">
-    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="16" priority="6" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:D43">
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:D68">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D94">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D94" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -3431,11 +3658,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3543,7 +3770,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3585,7 +3812,7 @@
         <v>6</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3613,7 +3840,7 @@
         <v>6</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3697,7 +3924,7 @@
         <v>6</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3753,7 +3980,7 @@
         <v>6</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3767,7 +3994,7 @@
         <v>6</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3809,7 +4036,7 @@
         <v>6</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3851,7 +4078,7 @@
         <v>6</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3921,7 +4148,7 @@
         <v>6</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -3949,7 +4176,7 @@
         <v>6</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -3977,7 +4204,7 @@
         <v>6</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4341,7 +4568,7 @@
         <v>6</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4467,7 +4694,7 @@
         <v>6</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4537,7 +4764,7 @@
         <v>6</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -4593,7 +4820,7 @@
         <v>6</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -4621,7 +4848,7 @@
         <v>6</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F88" t="s">
         <v>83</v>
@@ -4648,7 +4875,7 @@
       </c>
       <c r="G89">
         <f>COUNTIF(D8:D90,"Sí")</f>
-        <v>43</v>
+        <v>59</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4669,7 +4896,7 @@
       </c>
       <c r="G90" s="29">
         <f>G89/G88*10</f>
-        <v>5.1190476190476186</v>
+        <v>7.0238095238095237</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -4764,33 +4991,33 @@
       <c r="D105" s="21"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ytn5pghnxmPyOnJR40Isy+qA0P7oURCEwfImz+G37Zk+kFHoHM4EcF4nyt+iRfUZ14UAF6LB5EYeov3cI9ilMg==" saltValue="Dkh6mKhAJ7+aipK7V1Sh3A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="VbCq1a69cxOWsFGPvFI2Knn3oE273rs5bY8gPIaGtC+OPHJCCTJYjJHRxd7PG6uiQk/2spVKc6FkoYHFb87Ntg==" saltValue="Q0WM8RwIdBBr3Mib8CHxLQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D40 C44:D67 C69:D105">
-    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:D43">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:D68">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D105">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D105" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -4801,11 +5028,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView topLeftCell="B43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4869,7 +5096,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>7</v>
@@ -4886,7 +5113,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4900,7 +5127,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4914,7 +5141,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4970,7 +5197,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4984,7 +5211,7 @@
         <v>6</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4998,7 +5225,7 @@
         <v>6</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -5026,7 +5253,7 @@
         <v>6</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -5040,7 +5267,7 @@
         <v>6</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -5068,7 +5295,7 @@
         <v>6</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -5082,7 +5309,7 @@
         <v>6</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -5124,7 +5351,7 @@
         <v>6</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -5138,7 +5365,7 @@
         <v>6</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -5152,7 +5379,7 @@
         <v>6</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -5194,7 +5421,7 @@
         <v>6</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -5208,7 +5435,7 @@
         <v>6</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -5222,7 +5449,7 @@
         <v>6</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -5264,7 +5491,7 @@
         <v>6</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -5278,7 +5505,7 @@
         <v>6</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -5292,7 +5519,7 @@
         <v>6</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -5320,7 +5547,7 @@
         <v>6</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -5334,7 +5561,7 @@
         <v>6</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -5348,7 +5575,7 @@
         <v>6</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -5362,7 +5589,7 @@
         <v>6</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -5376,7 +5603,7 @@
         <v>6</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -5390,7 +5617,7 @@
         <v>6</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -5404,7 +5631,7 @@
         <v>6</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -5418,7 +5645,7 @@
         <v>6</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -5435,7 +5662,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>131</v>
       </c>
@@ -5446,10 +5673,10 @@
         <v>6</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>131</v>
       </c>
@@ -5460,19 +5687,23 @@
         <v>6</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F50" t="s">
         <v>83</v>
       </c>
       <c r="G50">
-        <v>84</v>
+        <f>COUNTIFS(D8:D52,"No")</f>
+        <v>13</v>
       </c>
       <c r="I50" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J50" s="34">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>131</v>
       </c>
@@ -5483,7 +5714,7 @@
         <v>6</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F51" t="s">
         <v>156</v>
@@ -5491,8 +5722,14 @@
       <c r="G51" s="34">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I51" t="s">
+        <v>158</v>
+      </c>
+      <c r="J51" s="34">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>131</v>
       </c>
@@ -5503,81 +5740,81 @@
         <v>6</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F52" t="s">
         <v>85</v>
       </c>
       <c r="G52" s="29">
         <f>40-(G50/4)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+        <v>36.75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="22"/>
       <c r="B53" s="20"/>
       <c r="C53" s="27"/>
       <c r="D53" s="21"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="22"/>
       <c r="C54" s="27"/>
       <c r="D54" s="21"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="22"/>
       <c r="B55" s="20"/>
       <c r="C55" s="27"/>
       <c r="D55" s="21"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="22"/>
       <c r="B56" s="20"/>
       <c r="C56" s="27"/>
       <c r="D56" s="21"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="22"/>
       <c r="B57" s="20"/>
       <c r="C57" s="27"/>
       <c r="D57" s="21"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="22"/>
       <c r="C58" s="27"/>
       <c r="D58" s="21"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="22"/>
       <c r="B59" s="20"/>
       <c r="C59" s="27"/>
       <c r="D59" s="21"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="22"/>
       <c r="B60" s="20"/>
       <c r="C60" s="27"/>
       <c r="D60" s="21"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="22"/>
       <c r="B61" s="20"/>
       <c r="C61" s="27"/>
       <c r="D61" s="21"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="22"/>
       <c r="B62" s="20"/>
       <c r="C62" s="27"/>
       <c r="D62" s="21"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="22"/>
       <c r="B63" s="20"/>
       <c r="C63" s="27"/>
       <c r="D63" s="21"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="22"/>
       <c r="B64" s="20"/>
       <c r="C64" s="27"/>
@@ -5602,25 +5839,307 @@
       <c r="D67" s="21"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="awGp2EWssEyBXfwq6NJvuhXH7+QzrxnOhAwVZMPkPL68GU5VH4XhjmApQvdwp7Bcs3EK81BNlVlzLc8RbWI+dg==" saltValue="N+PSx0xJpfPylfxVk0ZT0w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D40 D13:D52 C9:C52 C44:D67">
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:D43">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D67">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D67" xr:uid="{00000000-0002-0000-0300-000000000000}">
+      <formula1>$K$7:$K$8</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570D358D-47A1-40D3-8DF7-3F2700572576}">
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="2"/>
+    <col min="2" max="2" width="49.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="30"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+      <c r="I11" t="s">
+        <v>157</v>
+      </c>
+      <c r="J11" s="34">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G12" s="40">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I12" t="s">
+        <v>158</v>
+      </c>
+      <c r="J12" s="39">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="40">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="21"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="21"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="21"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="21"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="21"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="21"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="21"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="22"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="21"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="21"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="22"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="21"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="22"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="21"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="22"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="21"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="22"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="21"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="22"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="21"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="22"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="21"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C8:D28">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Sí">
+      <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D28" xr:uid="{2104BF9A-8A32-4DB8-8BE1-E098B3B3E90A}">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>

--- a/Revisiones/Revisiones.xlsx
+++ b/Revisiones/Revisiones.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erika\Documents\NetBeansProjects\GituHub\Actualización Tecnologica\ImprentaSoluciones\Revisiones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Avril\Documents\NetBeansProjects\GitHub\ImprentaSoluciones\Revisiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Revisión 1" sheetId="1" r:id="rId1"/>
@@ -512,7 +512,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1085,7 +1085,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1140,7 +1140,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1200,7 +1200,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD72BC36-EADE-4140-A13D-5F3D423C77F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DD72BC36-EADE-4140-A13D-5F3D423C77F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1255,7 +1255,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18C5C3EE-06E7-4191-9DEF-E4D508954E3F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18C5C3EE-06E7-4191-9DEF-E4D508954E3F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3434,8 +3434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="C90" sqref="C90"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4804,7 +4804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>

--- a/Revisiones/Revisiones.xlsx
+++ b/Revisiones/Revisiones.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Avril\Documents\NetBeansProjects\GitHub\ImprentaSoluciones\Revisiones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\NetBeansProjects\GituHub\ImprentaSoluciones\Revisiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91784415-71D0-472C-9F2D-47D4EEBB5892}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revisión 1" sheetId="1" r:id="rId1"/>
     <sheet name="Revisión 2" sheetId="3" r:id="rId2"/>
     <sheet name="Revisión 3 y 4" sheetId="5" r:id="rId3"/>
     <sheet name="Revisión flujo e inserts" sheetId="7" r:id="rId4"/>
+    <sheet name="Primera revisión de SELECT's" sheetId="8" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="164">
   <si>
     <t>Detalle</t>
   </si>
@@ -507,13 +509,34 @@
   </si>
   <si>
     <t>Diseño de app:</t>
+  </si>
+  <si>
+    <t>Calificación:</t>
+  </si>
+  <si>
+    <t>Creo que su columna de SOTCK y MÍNIMO están invertidas.</t>
+  </si>
+  <si>
+    <t>Todavía no me muestra los inactivos.</t>
+  </si>
+  <si>
+    <t>Todavía no carga la tabla.</t>
+  </si>
+  <si>
+    <t>El nombre del proveedor PAPEL se muestra en minúsculas mientras que todos los demás que se incerten se muestran en mayúsculas.</t>
+  </si>
+  <si>
+    <t>No me carga los productos nuevos que agrego.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -536,6 +559,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -545,7 +575,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -779,11 +809,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -872,11 +948,47 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1085,7 +1197,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1140,7 +1252,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1200,7 +1312,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DD72BC36-EADE-4140-A13D-5F3D423C77F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD72BC36-EADE-4140-A13D-5F3D423C77F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1255,7 +1367,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18C5C3EE-06E7-4191-9DEF-E4D508954E3F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18C5C3EE-06E7-4191-9DEF-E4D508954E3F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1264,6 +1376,121 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4776787" y="2057400"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>690562</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCDA3A5B-4725-4BC2-AAFA-AFA47A90D69C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776787" y="1866900"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>690562</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CuadroTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{828FDC0F-D8D1-4407-9882-8B69DC4CEB97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776787" y="1866900"/>
           <a:ext cx="65" cy="172227"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1596,10 +1823,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -2198,15 +2425,15 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ExBnjCEjKQTUupiVTQh+jeFV2HTXcN5ibqV427c8n/hZ09/3wskK1GlZTMtr8hBJRoijkdKryjH7X5XeOVLXzg==" saltValue="2nfvN8mBwwRqkyJE889YPQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D52">
-    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D52">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D52" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -2216,11 +2443,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2356,7 +2583,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2440,7 +2667,7 @@
         <v>6</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2535,10 +2762,10 @@
         <v>43</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2678,7 +2905,7 @@
         <v>6</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2717,7 +2944,7 @@
         <v>67</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>7</v>
@@ -2731,7 +2958,7 @@
         <v>68</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>7</v>
@@ -2857,7 +3084,7 @@
         <v>43</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>7</v>
@@ -2927,10 +3154,10 @@
         <v>43</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3039,7 +3266,7 @@
         <v>81</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D62" s="11" t="s">
         <v>7</v>
@@ -3279,7 +3506,7 @@
       </c>
       <c r="G78">
         <f>COUNTIF(D8:D79,"Sí")</f>
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3290,17 +3517,17 @@
         <v>43</v>
       </c>
       <c r="C79" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F79" t="s">
         <v>85</v>
       </c>
       <c r="G79" s="29">
         <f>G78/G77*10</f>
-        <v>6.5277777777777777</v>
+        <v>7.3611111111111116</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -3395,33 +3622,33 @@
       <c r="D94" s="21"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="GLr5KGFMpjLmC05zZVm+dffjn5R5D3XioTiwvG+gychqmhxr7EmSco3Hzgws84q1W1UlK2o2bGZ7zqeNOwjpdg==" saltValue="zJDeF0Pvwjb2PCtqv38jGA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="FdMxiKZ9ODgHOyhDRJ6S4XIcbWLCMxWcGMX181ZJ5PGO6XkN77B/60FvGozcgr6iIgz/2kNXxTzD8Xoc72Lslw==" saltValue="7uA5oLjkyHwxs/99Qa3wRw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D40 C44:D67 C69:D94">
-    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="16" priority="6" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:D43">
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:D68">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D94">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D94" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -3431,11 +3658,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3543,7 +3770,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3585,7 +3812,7 @@
         <v>6</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3613,7 +3840,7 @@
         <v>6</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3697,7 +3924,7 @@
         <v>6</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3753,7 +3980,7 @@
         <v>6</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3767,7 +3994,7 @@
         <v>6</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3809,7 +4036,7 @@
         <v>6</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3851,7 +4078,7 @@
         <v>6</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3862,7 +4089,7 @@
         <v>43</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>7</v>
@@ -3890,7 +4117,7 @@
         <v>43</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>7</v>
@@ -3918,10 +4145,10 @@
         <v>43</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -3949,7 +4176,7 @@
         <v>6</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -3974,10 +4201,10 @@
         <v>43</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4142,7 +4369,7 @@
         <v>67</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D54" s="11" t="s">
         <v>7</v>
@@ -4156,7 +4383,7 @@
         <v>68</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>7</v>
@@ -4296,7 +4523,7 @@
         <v>43</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D65" s="11" t="s">
         <v>7</v>
@@ -4338,10 +4565,10 @@
         <v>43</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4436,7 +4663,7 @@
         <v>81</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D75" s="11" t="s">
         <v>7</v>
@@ -4450,7 +4677,7 @@
         <v>122</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D76" s="11" t="s">
         <v>7</v>
@@ -4467,7 +4694,7 @@
         <v>6</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4537,7 +4764,7 @@
         <v>6</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -4593,7 +4820,7 @@
         <v>6</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -4618,10 +4845,10 @@
         <v>43</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F88" t="s">
         <v>83</v>
@@ -4648,7 +4875,7 @@
       </c>
       <c r="G89">
         <f>COUNTIF(D8:D90,"Sí")</f>
-        <v>43</v>
+        <v>59</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4669,7 +4896,7 @@
       </c>
       <c r="G90" s="29">
         <f>G89/G88*10</f>
-        <v>5.1190476190476186</v>
+        <v>7.0238095238095237</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -4764,33 +4991,33 @@
       <c r="D105" s="21"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ytn5pghnxmPyOnJR40Isy+qA0P7oURCEwfImz+G37Zk+kFHoHM4EcF4nyt+iRfUZ14UAF6LB5EYeov3cI9ilMg==" saltValue="Dkh6mKhAJ7+aipK7V1Sh3A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="VbCq1a69cxOWsFGPvFI2Knn3oE273rs5bY8gPIaGtC+OPHJCCTJYjJHRxd7PG6uiQk/2spVKc6FkoYHFb87Ntg==" saltValue="Q0WM8RwIdBBr3Mib8CHxLQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D40 C44:D67 C69:D105">
-    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:D43">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:D68">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D105">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D105" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -4801,11 +5028,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView topLeftCell="B43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4869,7 +5096,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>7</v>
@@ -4886,7 +5113,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4900,7 +5127,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4914,7 +5141,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4967,10 +5194,10 @@
         <v>132</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4981,10 +5208,10 @@
         <v>135</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4998,7 +5225,7 @@
         <v>6</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -5009,7 +5236,7 @@
         <v>43</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>7</v>
@@ -5026,7 +5253,7 @@
         <v>6</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -5040,7 +5267,7 @@
         <v>6</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -5051,7 +5278,7 @@
         <v>43</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>7</v>
@@ -5065,10 +5292,10 @@
         <v>139</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -5079,10 +5306,10 @@
         <v>43</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -5121,10 +5348,10 @@
         <v>142</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -5135,10 +5362,10 @@
         <v>146</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -5152,7 +5379,7 @@
         <v>6</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -5191,10 +5418,10 @@
         <v>138</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -5205,10 +5432,10 @@
         <v>43</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -5219,10 +5446,10 @@
         <v>147</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -5261,10 +5488,10 @@
         <v>138</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -5275,10 +5502,10 @@
         <v>43</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -5289,10 +5516,10 @@
         <v>132</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -5317,10 +5544,10 @@
         <v>146</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -5331,10 +5558,10 @@
         <v>150</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -5345,10 +5572,10 @@
         <v>146</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -5359,10 +5586,10 @@
         <v>138</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -5373,10 +5600,10 @@
         <v>151</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -5387,10 +5614,10 @@
         <v>132</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -5401,10 +5628,10 @@
         <v>152</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -5415,10 +5642,10 @@
         <v>153</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -5435,7 +5662,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>131</v>
       </c>
@@ -5443,13 +5670,13 @@
         <v>155</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>131</v>
       </c>
@@ -5457,22 +5684,26 @@
         <v>133</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F50" t="s">
         <v>83</v>
       </c>
       <c r="G50">
-        <v>84</v>
+        <f>COUNTIFS(D8:D52,"No")</f>
+        <v>13</v>
       </c>
       <c r="I50" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J50" s="34">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>131</v>
       </c>
@@ -5480,10 +5711,10 @@
         <v>135</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F51" t="s">
         <v>156</v>
@@ -5491,8 +5722,14 @@
       <c r="G51" s="34">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I51" t="s">
+        <v>158</v>
+      </c>
+      <c r="J51" s="34">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>131</v>
       </c>
@@ -5500,84 +5737,84 @@
         <v>134</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F52" t="s">
         <v>85</v>
       </c>
       <c r="G52" s="29">
         <f>40-(G50/4)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+        <v>36.75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="22"/>
       <c r="B53" s="20"/>
       <c r="C53" s="27"/>
       <c r="D53" s="21"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="22"/>
       <c r="C54" s="27"/>
       <c r="D54" s="21"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="22"/>
       <c r="B55" s="20"/>
       <c r="C55" s="27"/>
       <c r="D55" s="21"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="22"/>
       <c r="B56" s="20"/>
       <c r="C56" s="27"/>
       <c r="D56" s="21"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="22"/>
       <c r="B57" s="20"/>
       <c r="C57" s="27"/>
       <c r="D57" s="21"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="22"/>
       <c r="C58" s="27"/>
       <c r="D58" s="21"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="22"/>
       <c r="B59" s="20"/>
       <c r="C59" s="27"/>
       <c r="D59" s="21"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="22"/>
       <c r="B60" s="20"/>
       <c r="C60" s="27"/>
       <c r="D60" s="21"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="22"/>
       <c r="B61" s="20"/>
       <c r="C61" s="27"/>
       <c r="D61" s="21"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="22"/>
       <c r="B62" s="20"/>
       <c r="C62" s="27"/>
       <c r="D62" s="21"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="22"/>
       <c r="B63" s="20"/>
       <c r="C63" s="27"/>
       <c r="D63" s="21"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="22"/>
       <c r="B64" s="20"/>
       <c r="C64" s="27"/>
@@ -5602,25 +5839,307 @@
       <c r="D67" s="21"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="awGp2EWssEyBXfwq6NJvuhXH7+QzrxnOhAwVZMPkPL68GU5VH4XhjmApQvdwp7Bcs3EK81BNlVlzLc8RbWI+dg==" saltValue="N+PSx0xJpfPylfxVk0ZT0w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D40 D13:D52 C9:C52 C44:D67">
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:D43">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D67">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D67" xr:uid="{00000000-0002-0000-0300-000000000000}">
+      <formula1>$K$7:$K$8</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570D358D-47A1-40D3-8DF7-3F2700572576}">
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="2"/>
+    <col min="2" max="2" width="49.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="30"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+      <c r="I11" t="s">
+        <v>157</v>
+      </c>
+      <c r="J11" s="34">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G12" s="40">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I12" t="s">
+        <v>158</v>
+      </c>
+      <c r="J12" s="39">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="40">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="21"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="21"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="21"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="21"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="21"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="21"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="21"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="22"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="21"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="21"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="22"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="21"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="22"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="21"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="22"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="21"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="22"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="21"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="22"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="21"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="22"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="21"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C8:D28">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Sí">
+      <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D28" xr:uid="{2104BF9A-8A32-4DB8-8BE1-E098B3B3E90A}">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>

--- a/Revisiones/Revisiones.xlsx
+++ b/Revisiones/Revisiones.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\NetBeansProjects\GituHub\ImprentaSoluciones\Revisiones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erika\Documents\NetBeansProjects\GituHub\Actualización Tecnologica\ImprentaSoluciones\Revisiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91784415-71D0-472C-9F2D-47D4EEBB5892}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Revisión 1" sheetId="1" r:id="rId1"/>
@@ -532,11 +531,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -566,6 +565,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -859,7 +866,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -963,6 +970,12 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1823,7 +1836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView topLeftCell="A29" workbookViewId="0">
@@ -2433,7 +2446,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D52" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D52">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -2443,11 +2456,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3648,7 +3661,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D94" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D94">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -3658,11 +3671,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4369,7 +4382,7 @@
         <v>67</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D54" s="11" t="s">
         <v>7</v>
@@ -5017,7 +5030,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D105" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D105">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -5028,11 +5041,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView topLeftCell="B43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5236,7 +5249,7 @@
         <v>43</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>7</v>
@@ -5278,7 +5291,7 @@
         <v>43</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>7</v>
@@ -5856,7 +5869,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D67" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D67">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -5867,11 +5880,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570D358D-47A1-40D3-8DF7-3F2700572576}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5932,7 +5945,7 @@
         <v>159</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>7</v>
@@ -5948,8 +5961,8 @@
       <c r="B9" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>7</v>
+      <c r="C9" s="42" t="s">
+        <v>6</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>7</v>
@@ -5962,7 +5975,7 @@
       <c r="B10" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="41" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="11" t="s">
@@ -5977,7 +5990,7 @@
         <v>160</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>7</v>
@@ -6139,12 +6152,12 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D28" xr:uid="{2104BF9A-8A32-4DB8-8BE1-E098B3B3E90A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D28">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Revisiones/Revisiones.xlsx
+++ b/Revisiones/Revisiones.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Revisión 1" sheetId="1" r:id="rId1"/>
@@ -1839,7 +1839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -2459,8 +2459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3674,8 +3674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4382,7 +4382,7 @@
         <v>67</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D54" s="11" t="s">
         <v>7</v>
@@ -5044,8 +5044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5249,7 +5249,7 @@
         <v>43</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>7</v>
@@ -5291,7 +5291,7 @@
         <v>43</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>7</v>
@@ -5473,7 +5473,7 @@
         <v>149</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>7</v>
@@ -5487,7 +5487,7 @@
         <v>43</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>7</v>
@@ -5883,7 +5883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -5976,7 +5976,7 @@
         <v>161</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>7</v>
@@ -6016,7 +6016,7 @@
         <v>162</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>7</v>

--- a/Revisiones/Revisiones.xlsx
+++ b/Revisiones/Revisiones.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Revisión 1" sheetId="1" r:id="rId1"/>
@@ -1839,7 +1839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+    <sheetView topLeftCell="A35" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -5044,8 +5044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5884,7 +5884,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Revisiones/Revisiones.xlsx
+++ b/Revisiones/Revisiones.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Revisión 1" sheetId="1" r:id="rId1"/>
@@ -866,7 +866,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -974,6 +974,9 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1839,7 +1842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -2459,8 +2462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2551,7 +2554,7 @@
         <v>42</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>7</v>
@@ -2565,7 +2568,7 @@
         <v>43</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>7</v>
@@ -2635,7 +2638,7 @@
         <v>43</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>7</v>
@@ -3013,7 +3016,7 @@
         <v>27</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D43" s="11" t="s">
         <v>7</v>
@@ -3363,7 +3366,7 @@
         <v>34</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D68" s="11" t="s">
         <v>7</v>
@@ -3674,8 +3677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3752,7 +3755,7 @@
         <v>42</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>7</v>
@@ -3766,7 +3769,7 @@
         <v>98</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>7</v>
@@ -3962,7 +3965,7 @@
         <v>43</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>7</v>
@@ -4438,7 +4441,7 @@
         <v>27</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D58" s="11" t="s">
         <v>7</v>
@@ -4718,7 +4721,7 @@
         <v>34</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D78" s="11" t="s">
         <v>7</v>
@@ -5044,8 +5047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5165,7 +5168,7 @@
         <v>137</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>7</v>
@@ -5179,7 +5182,7 @@
         <v>138</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>7</v>
@@ -5192,8 +5195,8 @@
       <c r="B14" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>7</v>
+      <c r="C14" s="41" t="s">
+        <v>6</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>7</v>
@@ -5669,7 +5672,7 @@
         <v>154</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>7</v>
@@ -5883,8 +5886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6041,8 +6044,8 @@
       <c r="B13" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="C13" s="23" t="s">
-        <v>7</v>
+      <c r="C13" s="43" t="s">
+        <v>6</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>7</v>

--- a/Revisiones/Revisiones.xlsx
+++ b/Revisiones/Revisiones.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erika\Documents\NetBeansProjects\GituHub\Actualización Tecnologica\ImprentaSoluciones\Revisiones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\NetBeansProjects\GituHub\ImprentaSoluciones\Revisiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F89B1D-975C-4E98-8D24-B1F930F0EC1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Revisión 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Revisión 2" sheetId="3" r:id="rId2"/>
+    <sheet name="Revisión 1 COMPLETA" sheetId="1" r:id="rId1"/>
+    <sheet name="Revisión 2 - COMPLETA" sheetId="3" r:id="rId2"/>
     <sheet name="Revisión 3 y 4" sheetId="5" r:id="rId3"/>
     <sheet name="Revisión flujo e inserts" sheetId="7" r:id="rId4"/>
     <sheet name="Primera revisión de SELECT's" sheetId="8" r:id="rId5"/>
+    <sheet name="Segunda revisión SELECT's" sheetId="10" r:id="rId6"/>
+    <sheet name="Primera revisión UPDATE's" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="183">
   <si>
     <t>Detalle</t>
   </si>
@@ -526,12 +529,69 @@
   </si>
   <si>
     <t>No me carga los productos nuevos que agrego.</t>
+  </si>
+  <si>
+    <t>No carga al proveedor en el ComboBox.</t>
+  </si>
+  <si>
+    <t>Pasó algo extraño, borré ciertos campos y los dejé vacíos, le di clic en GUARDAR y como no tenía proveedor me marcó error a nivel consola, luego seleccioné un proveedor y volví a presionar GUARDAR y me mandó el mensaje de campos vacíos.</t>
+  </si>
+  <si>
+    <t>Si cierro la ventana y vuelvo a abrirla no me reinicia el ComboBox.</t>
+  </si>
+  <si>
+    <t>En general sólo marca error por consola cuando no selecciono un proveedor.</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>No tiene título de ventana.</t>
+  </si>
+  <si>
+    <t>Si accedo al sistema con un ENTER no cierra la ventana del LOGIN.</t>
+  </si>
+  <si>
+    <t>Hay un gran detalle con su AUTOCOMPLETER. Lo carga al inicio del programa y si yo modifico el nombre, no se ve reflejado en el AUTOCOMPLETER, de igual manera si yo desactivo un producto, me lo sigue mostrando y si estaba desactivado y lo activo no lo muestra.</t>
+  </si>
+  <si>
+    <t>No reduce el Stock.</t>
+  </si>
+  <si>
+    <t>¿No me interesa ver el desgloce de ventas pasadas?</t>
+  </si>
+  <si>
+    <t>Que no se abra la ventana cuando no tengo nada seleccionado en la tabla, que sólo aparezca el mensaje de error.</t>
+  </si>
+  <si>
+    <t>No puedo modificar el STOCK.</t>
+  </si>
+  <si>
+    <t>No actualiza el AUTOCOMPLETER.</t>
+  </si>
+  <si>
+    <t>Quiten el ID del AUTOCOMPLETER.</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Lo del AUTOCOMPLETER también aplica para COTIZACIONES.</t>
+  </si>
+  <si>
+    <t>App completa:</t>
+  </si>
+  <si>
+    <t>Aplicación</t>
+  </si>
+  <si>
+    <t>¿QUIÉNES SOMOS? Lleva acento en la primra E.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -582,7 +642,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -861,12 +921,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -979,12 +1065,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1543,6 +1677,236 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>690562</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2AF4542-EC57-461A-9617-D9582128F664}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776787" y="1866900"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>690562</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CuadroTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09D22035-D217-4B6B-BDD7-2D97AF35EB1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776787" y="1866900"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>690562</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC3AEAA4-5EC4-403B-B8C3-5AA9BADDD21B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776787" y="2047875"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>690562</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CuadroTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F0F9472-47A6-4E90-96DA-73F44358B5FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776787" y="2047875"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -1839,7 +2203,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
@@ -2441,15 +2805,15 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ExBnjCEjKQTUupiVTQh+jeFV2HTXcN5ibqV427c8n/hZ09/3wskK1GlZTMtr8hBJRoijkdKryjH7X5XeOVLXzg==" saltValue="2nfvN8mBwwRqkyJE889YPQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D52">
-    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D52">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D52" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -2459,11 +2823,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2557,7 +2921,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -2571,7 +2935,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2641,7 +3005,7 @@
         <v>6</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2669,7 +3033,7 @@
         <v>6</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2935,7 +3299,7 @@
         <v>6</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2949,7 +3313,7 @@
         <v>6</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2963,7 +3327,7 @@
         <v>6</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2977,7 +3341,7 @@
         <v>6</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2991,7 +3355,7 @@
         <v>6</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3005,7 +3369,7 @@
         <v>6</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -3019,7 +3383,7 @@
         <v>6</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -3103,7 +3467,7 @@
         <v>6</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3257,7 +3621,7 @@
         <v>6</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3271,7 +3635,7 @@
         <v>6</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3285,7 +3649,7 @@
         <v>6</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3299,7 +3663,7 @@
         <v>6</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3313,7 +3677,7 @@
         <v>6</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3369,7 +3733,7 @@
         <v>6</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3515,14 +3879,14 @@
         <v>6</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F78" t="s">
         <v>84</v>
       </c>
       <c r="G78">
         <f>COUNTIF(D8:D79,"Sí")</f>
-        <v>53</v>
+        <v>72</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3543,7 +3907,7 @@
       </c>
       <c r="G79" s="29">
         <f>G78/G77*10</f>
-        <v>7.3611111111111116</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -3638,33 +4002,33 @@
       <c r="D94" s="21"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="FdMxiKZ9ODgHOyhDRJ6S4XIcbWLCMxWcGMX181ZJ5PGO6XkN77B/60FvGozcgr6iIgz/2kNXxTzD8Xoc72Lslw==" saltValue="7uA5oLjkyHwxs/99Qa3wRw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="FFxpmwV1sXyExc7WSfuB3YmHdojM5Nbschq5RjUJav9Yy+NCZXGrfW5No/fdKHCgEPEWNExGG8XSrmLHU/LwqA==" saltValue="nW9ARutsWXmBY1tpPJNz2Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D40 C44:D67 C69:D94">
-    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="6" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="20" priority="6" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:D43">
-    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:D68">
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D94">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D94" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -3674,11 +4038,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3758,7 +4122,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -3772,7 +4136,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -3968,7 +4332,7 @@
         <v>6</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4108,7 +4472,7 @@
         <v>6</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4136,7 +4500,7 @@
         <v>6</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4346,7 +4710,7 @@
         <v>6</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -4360,7 +4724,7 @@
         <v>6</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4374,7 +4738,7 @@
         <v>6</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4388,7 +4752,7 @@
         <v>6</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4402,7 +4766,7 @@
         <v>6</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4416,7 +4780,7 @@
         <v>6</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4430,7 +4794,7 @@
         <v>6</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -4444,7 +4808,7 @@
         <v>6</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4542,7 +4906,7 @@
         <v>6</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -4654,7 +5018,7 @@
         <v>6</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -4668,7 +5032,7 @@
         <v>6</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4682,7 +5046,7 @@
         <v>6</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4696,7 +5060,7 @@
         <v>6</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4724,7 +5088,7 @@
         <v>6</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4891,7 +5255,7 @@
       </c>
       <c r="G89">
         <f>COUNTIF(D8:D90,"Sí")</f>
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4912,7 +5276,7 @@
       </c>
       <c r="G90" s="29">
         <f>G89/G88*10</f>
-        <v>7.0238095238095237</v>
+        <v>9.2857142857142865</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -5007,33 +5371,33 @@
       <c r="D105" s="21"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="VbCq1a69cxOWsFGPvFI2Knn3oE273rs5bY8gPIaGtC+OPHJCCTJYjJHRxd7PG6uiQk/2spVKc6FkoYHFb87Ntg==" saltValue="Q0WM8RwIdBBr3Mib8CHxLQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="nhzbFFJ1Fwkbb0huucd53ci9lM80oreO/B4jJOA8tlbyDUQOGuBvwdEbkcPd0LRoGGe7kj9eGm54m8xmJ51k5A==" saltValue="a2c7snj7GF4gCXoplpwyiA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D40 C44:D67 C69:D105">
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:D43">
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:D68">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D105">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D105" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -5044,11 +5408,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5171,7 +5535,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5185,7 +5549,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5199,7 +5563,7 @@
         <v>6</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5255,7 +5619,7 @@
         <v>6</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -5297,7 +5661,7 @@
         <v>6</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -5479,7 +5843,7 @@
         <v>6</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -5493,7 +5857,7 @@
         <v>6</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -5675,7 +6039,7 @@
         <v>6</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -5710,7 +6074,7 @@
       </c>
       <c r="G50">
         <f>COUNTIFS(D8:D52,"No")</f>
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I50" t="s">
         <v>157</v>
@@ -5763,7 +6127,7 @@
       </c>
       <c r="G52" s="29">
         <f>40-(G50/4)</f>
-        <v>36.75</v>
+        <v>38.75</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -5855,24 +6219,25 @@
       <c r="D67" s="21"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="oMXDoUlyU+lNqcQflLvDzNBmBLRMJClktkY+GkZm/SFGHLY5+86WbtaynlqsaE21u4e3WGwjxM4zTFdaZlAfAA==" saltValue="HhIpUx21kcTLj1Dit8W0EQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D40 D13:D52 C9:C52 C44:D67">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:D43">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D67">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D67" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -5883,11 +6248,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5951,7 +6316,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>7</v>
@@ -5968,7 +6333,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5982,7 +6347,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5996,7 +6361,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F11" t="s">
         <v>83</v>
@@ -6022,7 +6387,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F12" t="s">
         <v>156</v>
@@ -6048,7 +6413,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F13" t="s">
         <v>85</v>
@@ -6147,6 +6512,609 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C8:D28">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Sí">
+      <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D28" xr:uid="{00000000-0002-0000-0400-000000000000}">
+      <formula1>$K$7:$K$8</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BCA304C-6227-44CE-9201-8EC0A18435F1}">
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="2"/>
+    <col min="2" max="2" width="49.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="30"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11">
+        <f>COUNTIFS(D8:D13,"No")</f>
+        <v>6</v>
+      </c>
+      <c r="I11" t="s">
+        <v>180</v>
+      </c>
+      <c r="J11" s="34">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G12" s="44">
+        <v>0.05</v>
+      </c>
+      <c r="I12" t="s">
+        <v>158</v>
+      </c>
+      <c r="J12" s="34">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="40">
+        <f>(5-G11)/100</f>
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="21"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="21"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="21"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="21"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="21"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="21"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="21"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="22"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="21"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="21"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="22"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="21"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="22"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="21"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="22"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="21"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="22"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="21"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="22"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="21"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="22"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="21"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="Y1HWYnGm3IO629vV9xPcORjn8tIBAk0dHCaBbqLpFtOJxWTha6JQ4G3wqTlB5n9f2JP6nE6ORQ/MW6Lkxs4LCQ==" saltValue="25Pal6cqfqLtgrlXBtRtQw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <conditionalFormatting sqref="C8:D28">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Sí">
+      <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D28" xr:uid="{7DD9A28F-CA97-4AF6-A7F7-587E72979632}">
+      <formula1>$K$7:$K$8</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3A768D-42E3-46FF-A433-3A595D7D9A89}">
+  <dimension ref="A1:K30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="2"/>
+    <col min="2" max="2" width="49.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="30"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13">
+        <f>COUNTIFS(D8:D15,"No")</f>
+        <v>8</v>
+      </c>
+      <c r="I13" t="s">
+        <v>157</v>
+      </c>
+      <c r="J13" s="34">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>156</v>
+      </c>
+      <c r="G14" s="44">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I14" t="s">
+        <v>158</v>
+      </c>
+      <c r="J14" s="34">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="29">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="21"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="21"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="21"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="21"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="21"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="22"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="21"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="21"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="22"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="21"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="22"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="21"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="22"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="21"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="22"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="21"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="22"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="21"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="22"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="21"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="22"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="21"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="22"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="21"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="N4H2/dsUCFQCubflgaV+kO/DCWbVAqcoXxUOuB6LEYeAInEKoZ+lAN+LAe3GIF9gwp9JfAvxWTRmTaehBpfvrQ==" saltValue="3gmf1RsPa7QrdZHNH+ayYg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <conditionalFormatting sqref="C8:D30">
     <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
@@ -6154,13 +7122,13 @@
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D28">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D30" xr:uid="{7783CBA6-D633-4B24-BF31-E714B463A266}">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Revisiones/Revisiones.xlsx
+++ b/Revisiones/Revisiones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\NetBeansProjects\GituHub\ImprentaSoluciones\Revisiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F89B1D-975C-4E98-8D24-B1F930F0EC1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BD4DC6-016D-4F25-BE63-9D4EEA0E3141}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="185">
   <si>
     <t>Detalle</t>
   </si>
@@ -586,6 +586,12 @@
   </si>
   <si>
     <t>¿QUIÉNES SOMOS? Lleva acento en la primra E.</t>
+  </si>
+  <si>
+    <t>Inventario</t>
+  </si>
+  <si>
+    <t>Que el botón no diga BORRAR, que diga LIMPIAR.</t>
   </si>
 </sst>
 </file>
@@ -642,7 +648,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -921,38 +927,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1066,13 +1046,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6824,8 +6797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3A768D-42E3-46FF-A433-3A595D7D9A89}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6862,16 +6835,16 @@
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="16" t="s">
         <v>2</v>
       </c>
       <c r="K7" s="1" t="s">
@@ -6879,16 +6852,16 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="19" t="s">
         <v>7</v>
       </c>
       <c r="K8" s="1" t="s">
@@ -6964,19 +6937,6 @@
       <c r="D13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F13" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13">
-        <f>COUNTIFS(D8:D15,"No")</f>
-        <v>8</v>
-      </c>
-      <c r="I13" t="s">
-        <v>157</v>
-      </c>
-      <c r="J13" s="34">
-        <v>0.2</v>
-      </c>
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
@@ -6992,43 +6952,64 @@
         <v>7</v>
       </c>
       <c r="F14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14">
+        <f>COUNTIFS(D8:D16,"No")</f>
+        <v>9</v>
+      </c>
+      <c r="I14" t="s">
+        <v>157</v>
+      </c>
+      <c r="J14" s="34">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
         <v>156</v>
       </c>
-      <c r="G14" s="44">
+      <c r="G15" s="44">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I15" t="s">
         <v>158</v>
       </c>
-      <c r="J14" s="34">
+      <c r="J15" s="34">
         <v>0.19</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="C15" s="23" t="s">
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C16" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D16" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F16" t="s">
         <v>85</v>
       </c>
-      <c r="G15" s="29">
+      <c r="G16" s="29">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="21"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="22"/>
@@ -7113,7 +7094,6 @@
       <c r="D30" s="21"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="N4H2/dsUCFQCubflgaV+kO/DCWbVAqcoXxUOuB6LEYeAInEKoZ+lAN+LAe3GIF9gwp9JfAvxWTRmTaehBpfvrQ==" saltValue="3gmf1RsPa7QrdZHNH+ayYg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D30">
     <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
@@ -7122,7 +7102,7 @@
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D30" xr:uid="{7783CBA6-D633-4B24-BF31-E714B463A266}">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>

--- a/Revisiones/Revisiones.xlsx
+++ b/Revisiones/Revisiones.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\NetBeansProjects\GituHub\ImprentaSoluciones\Revisiones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Avril\Documents\NetBeansProjects\GitHub\ImprentaSoluciones\Revisiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BD4DC6-016D-4F25-BE63-9D4EEA0E3141}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Revisión 1 COMPLETA" sheetId="1" r:id="rId1"/>
@@ -597,7 +596,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -1320,7 +1319,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1375,7 +1374,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1435,7 +1434,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD72BC36-EADE-4140-A13D-5F3D423C77F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DD72BC36-EADE-4140-A13D-5F3D423C77F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1490,7 +1489,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18C5C3EE-06E7-4191-9DEF-E4D508954E3F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18C5C3EE-06E7-4191-9DEF-E4D508954E3F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1550,7 +1549,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCDA3A5B-4725-4BC2-AAFA-AFA47A90D69C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FCDA3A5B-4725-4BC2-AAFA-AFA47A90D69C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1605,7 +1604,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{828FDC0F-D8D1-4407-9882-8B69DC4CEB97}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{828FDC0F-D8D1-4407-9882-8B69DC4CEB97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1665,7 +1664,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2AF4542-EC57-461A-9617-D9582128F664}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C2AF4542-EC57-461A-9617-D9582128F664}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1720,7 +1719,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09D22035-D217-4B6B-BDD7-2D97AF35EB1A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{09D22035-D217-4B6B-BDD7-2D97AF35EB1A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1780,7 +1779,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC3AEAA4-5EC4-403B-B8C3-5AA9BADDD21B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BC3AEAA4-5EC4-403B-B8C3-5AA9BADDD21B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1835,7 +1834,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F0F9472-47A6-4E90-96DA-73F44358B5FF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6F0F9472-47A6-4E90-96DA-73F44358B5FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2176,7 +2175,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
@@ -2786,7 +2785,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D52" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D52">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -2796,7 +2795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K94"/>
   <sheetViews>
     <sheetView topLeftCell="A72" workbookViewId="0">
@@ -4001,7 +4000,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D94" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D94">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -4011,10 +4010,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
       <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
@@ -5370,7 +5369,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D105" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D105">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -5381,7 +5380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
@@ -6210,7 +6209,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D67" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D67">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -6221,11 +6220,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:J13"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6493,7 +6492,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D28" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D28">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -6504,7 +6503,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BCA304C-6227-44CE-9201-8EC0A18435F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
@@ -6783,7 +6782,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D28" xr:uid="{7DD9A28F-CA97-4AF6-A7F7-587E72979632}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D28">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -6794,11 +6793,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3A768D-42E3-46FF-A433-3A595D7D9A89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7103,7 +7102,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D30" xr:uid="{7783CBA6-D633-4B24-BF31-E714B463A266}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D30">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>

--- a/Revisiones/Revisiones.xlsx
+++ b/Revisiones/Revisiones.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Avril\Documents\NetBeansProjects\GitHub\ImprentaSoluciones\Revisiones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erika\Documents\NetBeansProjects\GituHub\Actualización Tecnologica\ImprentaSoluciones\Revisiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="185">
   <si>
     <t>Detalle</t>
   </si>
@@ -596,7 +596,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -1319,7 +1319,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1374,7 +1374,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1434,7 +1434,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DD72BC36-EADE-4140-A13D-5F3D423C77F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD72BC36-EADE-4140-A13D-5F3D423C77F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1489,7 +1489,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18C5C3EE-06E7-4191-9DEF-E4D508954E3F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18C5C3EE-06E7-4191-9DEF-E4D508954E3F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1549,7 +1549,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FCDA3A5B-4725-4BC2-AAFA-AFA47A90D69C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCDA3A5B-4725-4BC2-AAFA-AFA47A90D69C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1604,7 +1604,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{828FDC0F-D8D1-4407-9882-8B69DC4CEB97}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{828FDC0F-D8D1-4407-9882-8B69DC4CEB97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1664,7 +1664,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C2AF4542-EC57-461A-9617-D9582128F664}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2AF4542-EC57-461A-9617-D9582128F664}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1719,7 +1719,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{09D22035-D217-4B6B-BDD7-2D97AF35EB1A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09D22035-D217-4B6B-BDD7-2D97AF35EB1A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1779,7 +1779,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BC3AEAA4-5EC4-403B-B8C3-5AA9BADDD21B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC3AEAA4-5EC4-403B-B8C3-5AA9BADDD21B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1834,7 +1834,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6F0F9472-47A6-4E90-96DA-73F44358B5FF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F0F9472-47A6-4E90-96DA-73F44358B5FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2178,7 +2178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -2798,7 +2798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0">
+    <sheetView topLeftCell="A63" workbookViewId="0">
       <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
@@ -4013,8 +4013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4133,7 +4133,7 @@
         <v>100</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>7</v>
@@ -5141,7 +5141,7 @@
         <v>100</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D84" s="11" t="s">
         <v>7</v>
@@ -5383,8 +5383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5672,7 +5672,7 @@
         <v>140</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>7</v>
@@ -5686,7 +5686,7 @@
         <v>141</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>7</v>
@@ -5742,7 +5742,7 @@
         <v>144</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>7</v>
@@ -5882,7 +5882,7 @@
         <v>141</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>7</v>
@@ -6224,7 +6224,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6491,7 +6491,7 @@
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D28">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
@@ -6507,7 +6507,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6568,7 +6568,7 @@
         <v>169</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>7</v>
@@ -6585,7 +6585,7 @@
         <v>170</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>7</v>
@@ -6599,7 +6599,7 @@
         <v>171</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>7</v>
@@ -6613,7 +6613,7 @@
         <v>173</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>7</v>
@@ -6640,7 +6640,7 @@
         <v>177</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>7</v>
@@ -6666,7 +6666,7 @@
         <v>179</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>7</v>
@@ -6686,7 +6686,9 @@
       <c r="B14" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="C14" s="27"/>
+      <c r="C14" s="27" t="s">
+        <v>6</v>
+      </c>
       <c r="D14" s="21"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -6796,8 +6798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6858,7 +6860,7 @@
         <v>172</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>7</v>
@@ -6875,7 +6877,7 @@
         <v>164</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>7</v>
@@ -6889,7 +6891,7 @@
         <v>165</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>7</v>
@@ -6903,7 +6905,7 @@
         <v>166</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>7</v>
@@ -6917,7 +6919,7 @@
         <v>167</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>7</v>
@@ -6931,7 +6933,7 @@
         <v>174</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>7</v>
@@ -6945,7 +6947,7 @@
         <v>175</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>7</v>
@@ -6972,7 +6974,7 @@
         <v>176</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>7</v>
@@ -6998,7 +7000,7 @@
         <v>184</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>7</v>

--- a/Revisiones/Revisiones.xlsx
+++ b/Revisiones/Revisiones.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erika\Documents\NetBeansProjects\GituHub\Actualización Tecnologica\ImprentaSoluciones\Revisiones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\NetBeansProjects\GituHub\ImprentaSoluciones\Revisiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65170BF-4494-4DDB-98CE-3B2A37F3A310}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revisión 1 COMPLETA" sheetId="1" r:id="rId1"/>
@@ -19,6 +20,7 @@
     <sheet name="Primera revisión de SELECT's" sheetId="8" r:id="rId5"/>
     <sheet name="Segunda revisión SELECT's" sheetId="10" r:id="rId6"/>
     <sheet name="Primera revisión UPDATE's" sheetId="11" r:id="rId7"/>
+    <sheet name="Segunda revisión UPDATE's" sheetId="12" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="192">
   <si>
     <t>Detalle</t>
   </si>
@@ -591,12 +593,33 @@
   </si>
   <si>
     <t>Que el botón no diga BORRAR, que diga LIMPIAR.</t>
+  </si>
+  <si>
+    <t>Ingresé como ADMIN y como EMPLEADO y me abrieron la misma ventana.</t>
+  </si>
+  <si>
+    <t>No actualiza el autocompleter.</t>
+  </si>
+  <si>
+    <t>Si desactivo un producto me lo sigue mostrando en el autocompleter.</t>
+  </si>
+  <si>
+    <t>FOLIO está dos veces.</t>
+  </si>
+  <si>
+    <t>Si manejan el subtotal quiere decir que es el total sin IVA, o eso parece en este caso pero es exactamente igual al total.</t>
+  </si>
+  <si>
+    <t>El SUBTOTAL debe mostrarse antes del TOTAL.</t>
+  </si>
+  <si>
+    <t>Que los artículos sean separados por , o que se muestren en forma de lista.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -1050,7 +1073,27 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1879,6 +1922,121 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>690562</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00750F2F-8A61-440D-93C4-A1C903C0ACE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776787" y="2057400"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>690562</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CuadroTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E1B0B0E-DE4C-422D-B0D2-886824BC77EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776787" y="2057400"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -2175,7 +2333,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2777,15 +2935,15 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ExBnjCEjKQTUupiVTQh+jeFV2HTXcN5ibqV427c8n/hZ09/3wskK1GlZTMtr8hBJRoijkdKryjH7X5XeOVLXzg==" saltValue="2nfvN8mBwwRqkyJE889YPQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D52">
-    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="25" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="24" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D52">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D52" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -2795,7 +2953,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K94"/>
   <sheetViews>
     <sheetView topLeftCell="A63" workbookViewId="0">
@@ -3976,31 +4134,31 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="FFxpmwV1sXyExc7WSfuB3YmHdojM5Nbschq5RjUJav9Yy+NCZXGrfW5No/fdKHCgEPEWNExGG8XSrmLHU/LwqA==" saltValue="nW9ARutsWXmBY1tpPJNz2Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D40 C44:D67 C69:D94">
-    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="6" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="22" priority="6" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:D43">
-    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="20" priority="4" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:D68">
-    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D94">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D94" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -4010,11 +4168,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4077,7 +4235,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>7</v>
@@ -4136,7 +4294,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5144,7 +5302,7 @@
         <v>6</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5227,7 +5385,7 @@
       </c>
       <c r="G89">
         <f>COUNTIF(D8:D90,"Sí")</f>
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5248,7 +5406,7 @@
       </c>
       <c r="G90" s="29">
         <f>G89/G88*10</f>
-        <v>9.2857142857142865</v>
+        <v>9.6428571428571423</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -5343,33 +5501,33 @@
       <c r="D105" s="21"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="nhzbFFJ1Fwkbb0huucd53ci9lM80oreO/B4jJOA8tlbyDUQOGuBvwdEbkcPd0LRoGGe7kj9eGm54m8xmJ51k5A==" saltValue="a2c7snj7GF4gCXoplpwyiA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="hzTUK36PxnJcO4kF1LbfgwquV9rCDlV1+cyPBnN5F9huL/ceVnip3Rmtbqfy6KGhbzEqdc8mTCkVvZb/QRMlew==" saltValue="qVC76oah1Ka1Yc0F7fAnMw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D40 C44:D67 C69:D105">
-    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="16" priority="6" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:D43">
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:D68">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D105">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D105" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -5380,11 +5538,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5675,7 +5833,7 @@
         <v>6</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -5689,7 +5847,7 @@
         <v>6</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -5885,7 +6043,7 @@
         <v>6</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -6046,7 +6204,7 @@
       </c>
       <c r="G50">
         <f>COUNTIFS(D8:D52,"No")</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I50" t="s">
         <v>157</v>
@@ -6099,7 +6257,7 @@
       </c>
       <c r="G52" s="29">
         <f>40-(G50/4)</f>
-        <v>38.75</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -6191,25 +6349,25 @@
       <c r="D67" s="21"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="oMXDoUlyU+lNqcQflLvDzNBmBLRMJClktkY+GkZm/SFGHLY5+86WbtaynlqsaE21u4e3WGwjxM4zTFdaZlAfAA==" saltValue="HhIpUx21kcTLj1Dit8W0EQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SraxvWwpZOHklvnbMZ2mlVRVSNrsXaz/bGLNIX4ds0Ml6GDLnUf1TT/oCI+dqBv5cTm9YGhZguDtGyu+oyn99Q==" saltValue="mos4EOka4IHLs5Rl/rRxRA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D40 D13:D52 C9:C52 C44:D67">
-    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:D43">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D67">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D67" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -6220,7 +6378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
@@ -6483,16 +6641,17 @@
       <c r="D28" s="21"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="xi6BLlWX5f9UgmZQ7DvvT6I6751ssmDWYZCcX32LUATeB+CZtEGxCd8sIDxvhagk0CpqRBB2182bVHJ7aihhhQ==" saltValue="iK/7K8JO5BcWTFizY1zoCw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D28">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D28" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -6503,11 +6662,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6571,7 +6730,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>7</v>
@@ -6588,7 +6747,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -6616,14 +6775,14 @@
         <v>6</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F11" t="s">
         <v>83</v>
       </c>
       <c r="G11">
-        <f>COUNTIFS(D8:D13,"No")</f>
-        <v>6</v>
+        <f>COUNTIFS(D8:D14,"No")</f>
+        <v>2</v>
       </c>
       <c r="I11" t="s">
         <v>180</v>
@@ -6643,7 +6802,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F12" t="s">
         <v>156</v>
@@ -6658,38 +6817,40 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C13" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>7</v>
+      <c r="C13" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>6</v>
       </c>
       <c r="F13" t="s">
         <v>85</v>
       </c>
       <c r="G13" s="40">
         <f>(5-G11)/100</f>
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C14" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="21"/>
+      <c r="C14" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="22"/>
@@ -6774,17 +6935,17 @@
       <c r="D28" s="21"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Y1HWYnGm3IO629vV9xPcORjn8tIBAk0dHCaBbqLpFtOJxWTha6JQ4G3wqTlB5n9f2JP6nE6ORQ/MW6Lkxs4LCQ==" saltValue="25Pal6cqfqLtgrlXBtRtQw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="LVB+DYE3P+ClH2zGpHV8GTOjG9omLin8p53TcYBBGfBPWVMRMLE1pTiOSgY4tgFJybujDFpOXCtlPhQZMfMdyg==" saltValue="KDZB6XysFmp6P3+ScfVrtg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D28">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D28" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -6795,11 +6956,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6880,7 +7041,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -6894,7 +7055,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6908,7 +7069,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6922,7 +7083,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6936,7 +7097,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6950,14 +7111,14 @@
         <v>6</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F14" t="s">
         <v>83</v>
       </c>
       <c r="G14">
         <f>COUNTIFS(D8:D16,"No")</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I14" t="s">
         <v>157</v>
@@ -6977,13 +7138,13 @@
         <v>6</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F15" t="s">
         <v>156</v>
       </c>
       <c r="G15" s="44">
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="I15" t="s">
         <v>158</v>
@@ -7008,8 +7169,8 @@
       <c r="F16" t="s">
         <v>85</v>
       </c>
-      <c r="G16" s="29">
-        <v>2.5</v>
+      <c r="G16" s="39">
+        <v>0.05</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -7095,16 +7256,292 @@
       <c r="D30" s="21"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="h7zBgd/oXWkW/I7Lb55ihH1VpzaPA+rLkaMZYkJnb1FhRVwz7vGzhMR8OHKikX24K6GLE1dGYHCXGPO9UGsozQ==" saltValue="zk/I2D8cCO+msRXyIZBNZA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D30">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D30" xr:uid="{00000000-0002-0000-0600-000000000000}">
+      <formula1>$K$7:$K$8</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B7E661-79F8-4C31-9387-CFEE8E21CE5E}">
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="2"/>
+    <col min="2" max="2" width="49.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="30"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="34"/>
+    </row>
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="34"/>
+    </row>
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13">
+        <f>COUNTIFS(D8:D15,"No")</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>156</v>
+      </c>
+      <c r="G14" s="44">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="40">
+        <f>(5-G13)/100</f>
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="21"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="21"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="21"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="21"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="21"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="22"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="21"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="21"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="22"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="21"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="22"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="21"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="22"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="21"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="nSzc+MH9qW06i7Lxp9JM2WzGDlYVwTWmLMCYZ4wC/vQaSPMVfiAF0aPCyvY8MVW8i7L9oLtQBDjeHvoj1kOpPA==" saltValue="KHDHp4goK0K2nhKNmFPdxQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <conditionalFormatting sqref="C8:D25">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Sí">
+      <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D25" xr:uid="{55146382-3A2C-46CA-A9DE-A151FC26A55B}">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>

--- a/Revisiones/Revisiones.xlsx
+++ b/Revisiones/Revisiones.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\NetBeansProjects\GituHub\ImprentaSoluciones\Revisiones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erika\Documents\NetBeansProjects\GituHub\Actualización Tecnologica\ImprentaSoluciones\Revisiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65170BF-4494-4DDB-98CE-3B2A37F3A310}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Revisión 1 COMPLETA" sheetId="1" r:id="rId1"/>
@@ -619,7 +618,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -2333,7 +2332,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2943,7 +2942,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D52" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D52">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -2953,7 +2952,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K94"/>
   <sheetViews>
     <sheetView topLeftCell="A63" workbookViewId="0">
@@ -4158,7 +4157,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D94" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D94">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -4168,11 +4167,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="E90" sqref="E90"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4232,7 +4231,7 @@
         <v>97</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>6</v>
@@ -5527,7 +5526,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D105" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D105">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -5538,11 +5537,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6367,7 +6366,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D67" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D67">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -6378,7 +6377,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
@@ -6651,7 +6650,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D28" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D28">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -6662,11 +6661,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6945,7 +6944,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D28" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D28">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -6956,10 +6955,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -7266,7 +7265,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D30" xr:uid="{00000000-0002-0000-0600-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D30">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -7277,11 +7276,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B7E661-79F8-4C31-9387-CFEE8E21CE5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7403,7 +7402,7 @@
         <v>188</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>7</v>
@@ -7541,7 +7540,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D25" xr:uid="{55146382-3A2C-46CA-A9DE-A151FC26A55B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D25">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>

--- a/Revisiones/Revisiones.xlsx
+++ b/Revisiones/Revisiones.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Revisión 1 COMPLETA" sheetId="1" r:id="rId1"/>
@@ -6958,8 +6958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7279,8 +7279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7341,7 +7341,7 @@
         <v>172</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>7</v>
@@ -7358,7 +7358,7 @@
         <v>185</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>7</v>
@@ -7373,7 +7373,7 @@
         <v>186</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>7</v>
@@ -7388,7 +7388,7 @@
         <v>187</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>7</v>

--- a/Revisiones/Revisiones.xlsx
+++ b/Revisiones/Revisiones.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Revisión 1 COMPLETA" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Primera revisión de SELECT's" sheetId="8" r:id="rId5"/>
     <sheet name="Segunda revisión SELECT's" sheetId="10" r:id="rId6"/>
     <sheet name="Primera revisión UPDATE's" sheetId="11" r:id="rId7"/>
+    <sheet name="Segunda revisión UPDATE's" sheetId="12" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="192">
   <si>
     <t>Detalle</t>
   </si>
@@ -591,6 +592,27 @@
   </si>
   <si>
     <t>Que el botón no diga BORRAR, que diga LIMPIAR.</t>
+  </si>
+  <si>
+    <t>Ingresé como ADMIN y como EMPLEADO y me abrieron la misma ventana.</t>
+  </si>
+  <si>
+    <t>No actualiza el autocompleter.</t>
+  </si>
+  <si>
+    <t>Si desactivo un producto me lo sigue mostrando en el autocompleter.</t>
+  </si>
+  <si>
+    <t>FOLIO está dos veces.</t>
+  </si>
+  <si>
+    <t>Si manejan el subtotal quiere decir que es el total sin IVA, o eso parece en este caso pero es exactamente igual al total.</t>
+  </si>
+  <si>
+    <t>El SUBTOTAL debe mostrarse antes del TOTAL.</t>
+  </si>
+  <si>
+    <t>Que los artículos sean separados por , o que se muestren en forma de lista.</t>
   </si>
 </sst>
 </file>
@@ -1050,7 +1072,27 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1879,6 +1921,121 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>690562</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00750F2F-8A61-440D-93C4-A1C903C0ACE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776787" y="2057400"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>690562</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CuadroTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E1B0B0E-DE4C-422D-B0D2-886824BC77EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776787" y="2057400"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -2777,10 +2934,10 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ExBnjCEjKQTUupiVTQh+jeFV2HTXcN5ibqV427c8n/hZ09/3wskK1GlZTMtr8hBJRoijkdKryjH7X5XeOVLXzg==" saltValue="2nfvN8mBwwRqkyJE889YPQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D52">
-    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="25" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="24" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3976,26 +4133,26 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="FFxpmwV1sXyExc7WSfuB3YmHdojM5Nbschq5RjUJav9Yy+NCZXGrfW5No/fdKHCgEPEWNExGG8XSrmLHU/LwqA==" saltValue="nW9ARutsWXmBY1tpPJNz2Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D40 C44:D67 C69:D94">
-    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="6" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="22" priority="6" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:D43">
-    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="20" priority="4" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:D68">
-    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C68)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4013,8 +4170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4074,10 +4231,10 @@
         <v>97</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>7</v>
@@ -4136,7 +4293,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5144,7 +5301,7 @@
         <v>6</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5227,7 +5384,7 @@
       </c>
       <c r="G89">
         <f>COUNTIF(D8:D90,"Sí")</f>
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5248,7 +5405,7 @@
       </c>
       <c r="G90" s="29">
         <f>G89/G88*10</f>
-        <v>9.2857142857142865</v>
+        <v>9.6428571428571423</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -5343,28 +5500,28 @@
       <c r="D105" s="21"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="nhzbFFJ1Fwkbb0huucd53ci9lM80oreO/B4jJOA8tlbyDUQOGuBvwdEbkcPd0LRoGGe7kj9eGm54m8xmJ51k5A==" saltValue="a2c7snj7GF4gCXoplpwyiA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="hzTUK36PxnJcO4kF1LbfgwquV9rCDlV1+cyPBnN5F9huL/ceVnip3Rmtbqfy6KGhbzEqdc8mTCkVvZb/QRMlew==" saltValue="qVC76oah1Ka1Yc0F7fAnMw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D40 C44:D67 C69:D105">
-    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="16" priority="6" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:D43">
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:D68">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C68)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5383,8 +5540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5675,7 +5832,7 @@
         <v>6</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -5689,7 +5846,7 @@
         <v>6</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -5885,7 +6042,7 @@
         <v>6</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -6046,7 +6203,7 @@
       </c>
       <c r="G50">
         <f>COUNTIFS(D8:D52,"No")</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I50" t="s">
         <v>157</v>
@@ -6099,7 +6256,7 @@
       </c>
       <c r="G52" s="29">
         <f>40-(G50/4)</f>
-        <v>38.75</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -6191,20 +6348,20 @@
       <c r="D67" s="21"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="oMXDoUlyU+lNqcQflLvDzNBmBLRMJClktkY+GkZm/SFGHLY5+86WbtaynlqsaE21u4e3WGwjxM4zTFdaZlAfAA==" saltValue="HhIpUx21kcTLj1Dit8W0EQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SraxvWwpZOHklvnbMZ2mlVRVSNrsXaz/bGLNIX4ds0Ml6GDLnUf1TT/oCI+dqBv5cTm9YGhZguDtGyu+oyn99Q==" saltValue="mos4EOka4IHLs5Rl/rRxRA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D40 D13:D52 C9:C52 C44:D67">
-    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:D43">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C41)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6483,11 +6640,12 @@
       <c r="D28" s="21"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="xi6BLlWX5f9UgmZQ7DvvT6I6751ssmDWYZCcX32LUATeB+CZtEGxCd8sIDxvhagk0CpqRBB2182bVHJ7aihhhQ==" saltValue="iK/7K8JO5BcWTFizY1zoCw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D28">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6507,7 +6665,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6571,7 +6729,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>7</v>
@@ -6588,7 +6746,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -6616,14 +6774,14 @@
         <v>6</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F11" t="s">
         <v>83</v>
       </c>
       <c r="G11">
-        <f>COUNTIFS(D8:D13,"No")</f>
-        <v>6</v>
+        <f>COUNTIFS(D8:D14,"No")</f>
+        <v>2</v>
       </c>
       <c r="I11" t="s">
         <v>180</v>
@@ -6643,7 +6801,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F12" t="s">
         <v>156</v>
@@ -6658,38 +6816,40 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C13" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>7</v>
+      <c r="C13" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>6</v>
       </c>
       <c r="F13" t="s">
         <v>85</v>
       </c>
       <c r="G13" s="40">
         <f>(5-G11)/100</f>
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C14" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="21"/>
+      <c r="C14" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="22"/>
@@ -6774,12 +6934,12 @@
       <c r="D28" s="21"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Y1HWYnGm3IO629vV9xPcORjn8tIBAk0dHCaBbqLpFtOJxWTha6JQ4G3wqTlB5n9f2JP6nE6ORQ/MW6Lkxs4LCQ==" saltValue="25Pal6cqfqLtgrlXBtRtQw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="LVB+DYE3P+ClH2zGpHV8GTOjG9omLin8p53TcYBBGfBPWVMRMLE1pTiOSgY4tgFJybujDFpOXCtlPhQZMfMdyg==" saltValue="KDZB6XysFmp6P3+ScfVrtg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D28">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6798,8 +6958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6880,7 +7040,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -6894,7 +7054,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6908,7 +7068,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6922,7 +7082,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6936,7 +7096,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6950,14 +7110,14 @@
         <v>6</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F14" t="s">
         <v>83</v>
       </c>
       <c r="G14">
         <f>COUNTIFS(D8:D16,"No")</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I14" t="s">
         <v>157</v>
@@ -6977,13 +7137,13 @@
         <v>6</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F15" t="s">
         <v>156</v>
       </c>
       <c r="G15" s="44">
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="I15" t="s">
         <v>158</v>
@@ -7008,8 +7168,8 @@
       <c r="F16" t="s">
         <v>85</v>
       </c>
-      <c r="G16" s="29">
-        <v>2.5</v>
+      <c r="G16" s="39">
+        <v>0.05</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -7095,11 +7255,12 @@
       <c r="D30" s="21"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="h7zBgd/oXWkW/I7Lb55ihH1VpzaPA+rLkaMZYkJnb1FhRVwz7vGzhMR8OHKikX24K6GLE1dGYHCXGPO9UGsozQ==" saltValue="zk/I2D8cCO+msRXyIZBNZA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D30">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7112,4 +7273,279 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="2"/>
+    <col min="2" max="2" width="49.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="30"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="34"/>
+    </row>
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="34"/>
+    </row>
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13">
+        <f>COUNTIFS(D8:D15,"No")</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>156</v>
+      </c>
+      <c r="G14" s="44">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="40">
+        <f>(5-G13)/100</f>
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="21"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="21"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="21"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="21"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="21"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="22"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="21"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="21"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="22"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="21"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="22"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="21"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="22"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="21"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="nSzc+MH9qW06i7Lxp9JM2WzGDlYVwTWmLMCYZ4wC/vQaSPMVfiAF0aPCyvY8MVW8i7L9oLtQBDjeHvoj1kOpPA==" saltValue="KHDHp4goK0K2nhKNmFPdxQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <conditionalFormatting sqref="C8:D25">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Sí">
+      <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D25">
+      <formula1>$K$7:$K$8</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Revisiones/Revisiones.xlsx
+++ b/Revisiones/Revisiones.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erika\Documents\NetBeansProjects\GituHub\Actualización Tecnologica\ImprentaSoluciones\Revisiones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Avril\Documents\NetBeansProjects\GitHub\ImprentaSoluciones\Revisiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -618,7 +618,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -1361,7 +1361,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1416,7 +1416,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1476,7 +1476,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD72BC36-EADE-4140-A13D-5F3D423C77F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DD72BC36-EADE-4140-A13D-5F3D423C77F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1531,7 +1531,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18C5C3EE-06E7-4191-9DEF-E4D508954E3F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18C5C3EE-06E7-4191-9DEF-E4D508954E3F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1591,7 +1591,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCDA3A5B-4725-4BC2-AAFA-AFA47A90D69C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FCDA3A5B-4725-4BC2-AAFA-AFA47A90D69C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1646,7 +1646,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{828FDC0F-D8D1-4407-9882-8B69DC4CEB97}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{828FDC0F-D8D1-4407-9882-8B69DC4CEB97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1706,7 +1706,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2AF4542-EC57-461A-9617-D9582128F664}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C2AF4542-EC57-461A-9617-D9582128F664}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1761,7 +1761,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09D22035-D217-4B6B-BDD7-2D97AF35EB1A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{09D22035-D217-4B6B-BDD7-2D97AF35EB1A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1821,7 +1821,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC3AEAA4-5EC4-403B-B8C3-5AA9BADDD21B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BC3AEAA4-5EC4-403B-B8C3-5AA9BADDD21B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1876,7 +1876,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F0F9472-47A6-4E90-96DA-73F44358B5FF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6F0F9472-47A6-4E90-96DA-73F44358B5FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1936,7 +1936,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00750F2F-8A61-440D-93C4-A1C903C0ACE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00750F2F-8A61-440D-93C4-A1C903C0ACE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1991,7 +1991,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E1B0B0E-DE4C-422D-B0D2-886824BC77EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9E1B0B0E-DE4C-422D-B0D2-886824BC77EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2955,7 +2955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
@@ -4170,7 +4170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -5540,7 +5540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -6665,7 +6665,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6959,7 +6959,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7279,8 +7279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7416,7 +7416,7 @@
         <v>189</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>7</v>
@@ -7437,7 +7437,7 @@
         <v>190</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>7</v>

--- a/Revisiones/Revisiones.xlsx
+++ b/Revisiones/Revisiones.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Avril\Documents\NetBeansProjects\GitHub\ImprentaSoluciones\Revisiones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\NetBeansProjects\GituHub\ImprentaSoluciones\Revisiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E63628B-38D0-4199-8F7C-F50DFC2903D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revisión 1 COMPLETA" sheetId="1" r:id="rId1"/>
@@ -20,6 +21,7 @@
     <sheet name="Segunda revisión SELECT's" sheetId="10" r:id="rId6"/>
     <sheet name="Primera revisión UPDATE's" sheetId="11" r:id="rId7"/>
     <sheet name="Segunda revisión UPDATE's" sheetId="12" r:id="rId8"/>
+    <sheet name="Primera revisión BAJAS" sheetId="13" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="198">
   <si>
     <t>Detalle</t>
   </si>
@@ -613,12 +615,30 @@
   </si>
   <si>
     <t>Que los artículos sean separados por , o que se muestren en forma de lista.</t>
+  </si>
+  <si>
+    <t>Si ingreso como administrador con un ENTER me abre la de empleado, me veo obligado a darle clic al botón LOGIN.</t>
+  </si>
+  <si>
+    <t>Autocompleter</t>
+  </si>
+  <si>
+    <t>Si modifico un producto el cambio de nombre no se ve reflejado ni en ventas ni en cotizaciones.</t>
+  </si>
+  <si>
+    <t>No elimina.</t>
+  </si>
+  <si>
+    <t>El botón ELIMINAR no está validado en caso de no seleccionar nada.</t>
+  </si>
+  <si>
+    <t>Falta que funcione.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -1072,7 +1092,27 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="28">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1361,7 +1401,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1416,7 +1456,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1476,7 +1516,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DD72BC36-EADE-4140-A13D-5F3D423C77F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD72BC36-EADE-4140-A13D-5F3D423C77F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1531,7 +1571,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18C5C3EE-06E7-4191-9DEF-E4D508954E3F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18C5C3EE-06E7-4191-9DEF-E4D508954E3F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1591,7 +1631,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FCDA3A5B-4725-4BC2-AAFA-AFA47A90D69C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCDA3A5B-4725-4BC2-AAFA-AFA47A90D69C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1646,7 +1686,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{828FDC0F-D8D1-4407-9882-8B69DC4CEB97}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{828FDC0F-D8D1-4407-9882-8B69DC4CEB97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1706,7 +1746,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C2AF4542-EC57-461A-9617-D9582128F664}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2AF4542-EC57-461A-9617-D9582128F664}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1761,7 +1801,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{09D22035-D217-4B6B-BDD7-2D97AF35EB1A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09D22035-D217-4B6B-BDD7-2D97AF35EB1A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1821,7 +1861,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BC3AEAA4-5EC4-403B-B8C3-5AA9BADDD21B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC3AEAA4-5EC4-403B-B8C3-5AA9BADDD21B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1876,7 +1916,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6F0F9472-47A6-4E90-96DA-73F44358B5FF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F0F9472-47A6-4E90-96DA-73F44358B5FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1936,7 +1976,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00750F2F-8A61-440D-93C4-A1C903C0ACE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00750F2F-8A61-440D-93C4-A1C903C0ACE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1991,7 +2031,122 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9E1B0B0E-DE4C-422D-B0D2-886824BC77EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E1B0B0E-DE4C-422D-B0D2-886824BC77EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776787" y="2057400"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>690562</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A0E2068-F95E-4C4A-9CAA-D80B6A5D616F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776787" y="2057400"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>690562</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CuadroTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B37402EC-3282-4676-8076-50BAAE90DBE5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2332,7 +2487,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2934,15 +3089,15 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ExBnjCEjKQTUupiVTQh+jeFV2HTXcN5ibqV427c8n/hZ09/3wskK1GlZTMtr8hBJRoijkdKryjH7X5XeOVLXzg==" saltValue="2nfvN8mBwwRqkyJE889YPQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D52">
-    <cfRule type="containsText" dxfId="25" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="26" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D52">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D52" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -2952,7 +3107,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4133,31 +4288,31 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="FFxpmwV1sXyExc7WSfuB3YmHdojM5Nbschq5RjUJav9Yy+NCZXGrfW5No/fdKHCgEPEWNExGG8XSrmLHU/LwqA==" saltValue="nW9ARutsWXmBY1tpPJNz2Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D40 C44:D67 C69:D94">
-    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="6" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="24" priority="6" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:D43">
-    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="4" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="22" priority="4" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:D68">
-    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="20" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D94">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D94" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -4167,10 +4322,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="A87" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -5502,31 +5657,31 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="hzTUK36PxnJcO4kF1LbfgwquV9rCDlV1+cyPBnN5F9huL/ceVnip3Rmtbqfy6KGhbzEqdc8mTCkVvZb/QRMlew==" saltValue="qVC76oah1Ka1Yc0F7fAnMw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D40 C44:D67 C69:D105">
-    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="6" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="18" priority="6" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:D43">
-    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:D68">
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D105">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D105" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -5537,10 +5692,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -5902,7 +6057,7 @@
         <v>6</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -6203,7 +6358,7 @@
       </c>
       <c r="G50">
         <f>COUNTIFS(D8:D52,"No")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="s">
         <v>157</v>
@@ -6256,7 +6411,7 @@
       </c>
       <c r="G52" s="29">
         <f>40-(G50/4)</f>
-        <v>39.5</v>
+        <v>39.75</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -6348,25 +6503,25 @@
       <c r="D67" s="21"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="SraxvWwpZOHklvnbMZ2mlVRVSNrsXaz/bGLNIX4ds0Ml6GDLnUf1TT/oCI+dqBv5cTm9YGhZguDtGyu+oyn99Q==" saltValue="mos4EOka4IHLs5Rl/rRxRA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="j6TDX0XSNuMTOKEbwHZFz8UWpjUtSgvj8kx4IjrhZ/H+Pi/v9KFfyi59tfWedyp2PLanpdgoWQdIw3E7FYgylA==" saltValue="XP5MrdogYz0n2uZLBQaOuw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D40 D13:D52 C9:C52 C44:D67">
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:D43">
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D67">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D67" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -6377,7 +6532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
@@ -6642,15 +6797,15 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="xi6BLlWX5f9UgmZQ7DvvT6I6751ssmDWYZCcX32LUATeB+CZtEGxCd8sIDxvhagk0CpqRBB2182bVHJ7aihhhQ==" saltValue="iK/7K8JO5BcWTFizY1zoCw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D28">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D28" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -6661,11 +6816,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6781,7 +6936,7 @@
       </c>
       <c r="G11">
         <f>COUNTIFS(D8:D14,"No")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="s">
         <v>180</v>
@@ -6813,7 +6968,7 @@
         <v>158</v>
       </c>
       <c r="J12" s="34">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6834,7 +6989,7 @@
       </c>
       <c r="G13" s="40">
         <f>(5-G11)/100</f>
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6848,7 +7003,7 @@
         <v>6</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -6934,17 +7089,17 @@
       <c r="D28" s="21"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="LVB+DYE3P+ClH2zGpHV8GTOjG9omLin8p53TcYBBGfBPWVMRMLE1pTiOSgY4tgFJybujDFpOXCtlPhQZMfMdyg==" saltValue="KDZB6XysFmp6P3+ScfVrtg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="1Yw5rVGSfB63iCq7IUTtdvw1xi0WTsttHiupGWYNk5D8EzPe3npTb2yB6c27M2tq306XFBjLofhS/6DosUm5dg==" saltValue="VNopPuCnga7IooHprXaIrA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D28">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D28" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -6955,11 +7110,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7023,7 +7178,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>7</v>
@@ -7117,7 +7272,7 @@
       </c>
       <c r="G14">
         <f>COUNTIFS(D8:D16,"No")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="s">
         <v>157</v>
@@ -7163,7 +7318,7 @@
         <v>6</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F16" t="s">
         <v>85</v>
@@ -7255,17 +7410,17 @@
       <c r="D30" s="21"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="h7zBgd/oXWkW/I7Lb55ihH1VpzaPA+rLkaMZYkJnb1FhRVwz7vGzhMR8OHKikX24K6GLE1dGYHCXGPO9UGsozQ==" saltValue="zk/I2D8cCO+msRXyIZBNZA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="teEvzxKDkbes9wPcp0+cZTt8Wyi7aXUZECuliSBJUWtbHrytuR9A/tWNsaDmEBBCMfB6NzcoB7gM5r0X8f589g==" saltValue="l5Y6UZa5REz0l2NIBqP5ug==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D30">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D30" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -7276,11 +7431,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7344,7 +7499,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>7</v>
@@ -7376,7 +7531,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J10" s="34"/>
     </row>
@@ -7391,7 +7546,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -7426,7 +7581,7 @@
       </c>
       <c r="G13">
         <f>COUNTIFS(D8:D15,"No")</f>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -7467,7 +7622,7 @@
       </c>
       <c r="G15" s="40">
         <f>(5-G13)/100</f>
-        <v>-0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -7530,8 +7685,269 @@
       <c r="D25" s="21"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="nSzc+MH9qW06i7Lxp9JM2WzGDlYVwTWmLMCYZ4wC/vQaSPMVfiAF0aPCyvY8MVW8i7L9oLtQBDjeHvoj1kOpPA==" saltValue="KHDHp4goK0K2nhKNmFPdxQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="HhsE10KiQ7k8mkGFk1je+ckEGX3tmv76f/6+p7zvoDm+gRfXX9hpzpmlpP/jnxhWdleO12JTzjOatL/RLUR/Bg==" saltValue="jjjrx6pVg33GK0pkF5l/jQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D25">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Sí">
+      <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D25" xr:uid="{00000000-0002-0000-0700-000000000000}">
+      <formula1>$K$7:$K$8</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C899B874-17B3-4A5B-A00D-295A6E64D0E5}">
+  <dimension ref="A1:K24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="2"/>
+    <col min="2" max="2" width="49.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="30"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="34"/>
+    </row>
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="34"/>
+    </row>
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12">
+        <f>COUNTIFS(D8:D14,"No")</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>156</v>
+      </c>
+      <c r="G13" s="44">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="40">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="21"/>
+      <c r="G15" s="32"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="21"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="21"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="21"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="21"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="21"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="22"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="21"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="21"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="22"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="21"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="22"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="21"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="5EcGPCaH/bw26pYWTDNiRjftL7cQDpzy984lioLOARrcA8Ajgj9KZC07DVUOQGwHWHSS84bZFQQBoTs66bQQqw==" saltValue="tfazJqyAKay9UPD9HdJtLA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <conditionalFormatting sqref="C8:D24">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
@@ -7540,7 +7956,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D24" xr:uid="{0BAC9679-7E22-4E9C-AFE7-BC74EA41A29F}">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>

--- a/Revisiones/Revisiones.xlsx
+++ b/Revisiones/Revisiones.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\NetBeansProjects\GituHub\ImprentaSoluciones\Revisiones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Avril\Documents\NetBeansProjects\GitHub\ImprentaSoluciones\Revisiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E63628B-38D0-4199-8F7C-F50DFC2903D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Revisión 1 COMPLETA" sheetId="1" r:id="rId1"/>
@@ -638,7 +637,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -1401,7 +1400,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1456,7 +1455,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1516,7 +1515,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD72BC36-EADE-4140-A13D-5F3D423C77F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DD72BC36-EADE-4140-A13D-5F3D423C77F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1571,7 +1570,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18C5C3EE-06E7-4191-9DEF-E4D508954E3F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18C5C3EE-06E7-4191-9DEF-E4D508954E3F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1631,7 +1630,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCDA3A5B-4725-4BC2-AAFA-AFA47A90D69C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FCDA3A5B-4725-4BC2-AAFA-AFA47A90D69C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1686,7 +1685,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{828FDC0F-D8D1-4407-9882-8B69DC4CEB97}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{828FDC0F-D8D1-4407-9882-8B69DC4CEB97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1746,7 +1745,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2AF4542-EC57-461A-9617-D9582128F664}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C2AF4542-EC57-461A-9617-D9582128F664}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1801,7 +1800,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09D22035-D217-4B6B-BDD7-2D97AF35EB1A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{09D22035-D217-4B6B-BDD7-2D97AF35EB1A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1861,7 +1860,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC3AEAA4-5EC4-403B-B8C3-5AA9BADDD21B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BC3AEAA4-5EC4-403B-B8C3-5AA9BADDD21B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1916,7 +1915,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F0F9472-47A6-4E90-96DA-73F44358B5FF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6F0F9472-47A6-4E90-96DA-73F44358B5FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1976,7 +1975,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00750F2F-8A61-440D-93C4-A1C903C0ACE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00750F2F-8A61-440D-93C4-A1C903C0ACE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2031,7 +2030,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E1B0B0E-DE4C-422D-B0D2-886824BC77EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9E1B0B0E-DE4C-422D-B0D2-886824BC77EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2091,7 +2090,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A0E2068-F95E-4C4A-9CAA-D80B6A5D616F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A0E2068-F95E-4C4A-9CAA-D80B6A5D616F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2146,7 +2145,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B37402EC-3282-4676-8076-50BAAE90DBE5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B37402EC-3282-4676-8076-50BAAE90DBE5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2487,7 +2486,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3097,7 +3096,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D52" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D52">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -3107,7 +3106,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4312,7 +4311,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D94" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D94">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -4322,7 +4321,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView topLeftCell="A87" workbookViewId="0">
@@ -5681,7 +5680,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D105" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D105">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -5692,7 +5691,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
@@ -6521,7 +6520,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D67" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D67">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -6532,7 +6531,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
@@ -6805,7 +6804,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D28" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D28">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -6816,7 +6815,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
@@ -7099,7 +7098,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D28" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D28">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -7110,7 +7109,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
@@ -7420,7 +7419,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D30" xr:uid="{00000000-0002-0000-0600-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D30">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -7431,11 +7430,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7571,7 +7570,7 @@
         <v>189</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>7</v>
@@ -7695,7 +7694,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D25" xr:uid="{00000000-0002-0000-0700-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D25">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -7706,11 +7705,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C899B874-17B3-4A5B-A00D-295A6E64D0E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7771,7 +7770,7 @@
         <v>192</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>7</v>
@@ -7788,7 +7787,7 @@
         <v>194</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>7</v>
@@ -7873,7 +7872,7 @@
         <v>197</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>7</v>
@@ -7956,7 +7955,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D24" xr:uid="{0BAC9679-7E22-4E9C-AFE7-BC74EA41A29F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D24">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>

--- a/Revisiones/Revisiones.xlsx
+++ b/Revisiones/Revisiones.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Avril\Documents\NetBeansProjects\GitHub\ImprentaSoluciones\Revisiones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\NetBeansProjects\GituHub\ImprentaSoluciones\Revisiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5059F2F3-5442-4DEB-9954-EF3274554752}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revisión 1 COMPLETA" sheetId="1" r:id="rId1"/>
@@ -21,6 +22,7 @@
     <sheet name="Primera revisión UPDATE's" sheetId="11" r:id="rId7"/>
     <sheet name="Segunda revisión UPDATE's" sheetId="12" r:id="rId8"/>
     <sheet name="Primera revisión BAJAS" sheetId="13" r:id="rId9"/>
+    <sheet name="Segunda revisión BAJAS" sheetId="14" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="202">
   <si>
     <t>Detalle</t>
   </si>
@@ -632,12 +634,24 @@
   </si>
   <si>
     <t>Falta que funcione.</t>
+  </si>
+  <si>
+    <t>Aún no imprime la venta</t>
+  </si>
+  <si>
+    <t>Le doy exportar y no hace nada.</t>
+  </si>
+  <si>
+    <t>¿Cómo sé qué vino a cotizar mi cliente?</t>
+  </si>
+  <si>
+    <t>Si agrego desde BUSCAR puedo agregar más de lo que hay en el stock, por ejemplo, si me quedan 10, puedo agregar 20.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -972,7 +986,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1086,12 +1100,33 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="30">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1400,7 +1435,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1455,7 +1490,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1515,7 +1550,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DD72BC36-EADE-4140-A13D-5F3D423C77F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD72BC36-EADE-4140-A13D-5F3D423C77F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1570,7 +1605,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18C5C3EE-06E7-4191-9DEF-E4D508954E3F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18C5C3EE-06E7-4191-9DEF-E4D508954E3F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1630,7 +1665,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FCDA3A5B-4725-4BC2-AAFA-AFA47A90D69C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCDA3A5B-4725-4BC2-AAFA-AFA47A90D69C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1685,7 +1720,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{828FDC0F-D8D1-4407-9882-8B69DC4CEB97}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{828FDC0F-D8D1-4407-9882-8B69DC4CEB97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1745,7 +1780,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C2AF4542-EC57-461A-9617-D9582128F664}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2AF4542-EC57-461A-9617-D9582128F664}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1800,7 +1835,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{09D22035-D217-4B6B-BDD7-2D97AF35EB1A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09D22035-D217-4B6B-BDD7-2D97AF35EB1A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1860,7 +1895,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BC3AEAA4-5EC4-403B-B8C3-5AA9BADDD21B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC3AEAA4-5EC4-403B-B8C3-5AA9BADDD21B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1915,7 +1950,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6F0F9472-47A6-4E90-96DA-73F44358B5FF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F0F9472-47A6-4E90-96DA-73F44358B5FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1975,7 +2010,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00750F2F-8A61-440D-93C4-A1C903C0ACE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00750F2F-8A61-440D-93C4-A1C903C0ACE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2030,7 +2065,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9E1B0B0E-DE4C-422D-B0D2-886824BC77EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E1B0B0E-DE4C-422D-B0D2-886824BC77EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2090,7 +2125,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A0E2068-F95E-4C4A-9CAA-D80B6A5D616F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A0E2068-F95E-4C4A-9CAA-D80B6A5D616F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2145,7 +2180,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B37402EC-3282-4676-8076-50BAAE90DBE5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B37402EC-3282-4676-8076-50BAAE90DBE5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2154,6 +2189,121 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4776787" y="2057400"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>690562</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DA201B2-C55B-4B69-A9AE-2B432F0C9D64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776787" y="2438400"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>690562</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CuadroTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E56C9406-225B-4A09-82BE-81570DA95ABD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4776787" y="2438400"/>
           <a:ext cx="65" cy="172227"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2486,7 +2636,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3088,15 +3238,15 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ExBnjCEjKQTUupiVTQh+jeFV2HTXcN5ibqV427c8n/hZ09/3wskK1GlZTMtr8hBJRoijkdKryjH7X5XeOVLXzg==" saltValue="2nfvN8mBwwRqkyJE889YPQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D52">
-    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="29" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="28" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D52">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D52" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -3105,8 +3255,256 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E586AF78-6D66-48EB-82AD-D00FC40A4A7A}">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="2"/>
+    <col min="2" max="2" width="49.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="30"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="34"/>
+    </row>
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13">
+        <f>COUNTIFS(D8:D15,"No")</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>156</v>
+      </c>
+      <c r="G14" s="44">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="45">
+        <f>(2.5-G13)/100</f>
+        <v>-5.5E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="21"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="21"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="21"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="21"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="21"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="22"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="21"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="3Bf4oz4sgYw4qA586p7fDOzY6H8ctQOKaeYBKj61zsqSE4S6RjfBxuslV3Ia1RQbZ6wsMAZCZhRFGphLRXuGuQ==" saltValue="XKsKnWMILDeAQmjCsrL+xA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <conditionalFormatting sqref="C8:D21">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Sí">
+      <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D21" xr:uid="{0DA16AC5-4096-4358-B48F-662F8E0D8520}">
+      <formula1>$K$7:$K$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4287,31 +4685,31 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="FFxpmwV1sXyExc7WSfuB3YmHdojM5Nbschq5RjUJav9Yy+NCZXGrfW5No/fdKHCgEPEWNExGG8XSrmLHU/LwqA==" saltValue="nW9ARutsWXmBY1tpPJNz2Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D40 C44:D67 C69:D94">
-    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="27" priority="5" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="6" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="26" priority="6" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:D43">
-    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="25" priority="3" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="4" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="24" priority="4" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:D68">
-    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D94">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D94" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -4321,11 +4719,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5517,7 +5915,7 @@
         <v>83</v>
       </c>
       <c r="G88">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5538,7 +5936,7 @@
       </c>
       <c r="G89">
         <f>COUNTIF(D8:D90,"Sí")</f>
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5552,14 +5950,14 @@
         <v>7</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F90" t="s">
         <v>85</v>
       </c>
       <c r="G90" s="29">
         <f>G89/G88*10</f>
-        <v>9.6428571428571423</v>
+        <v>9.8795180722891569</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -5654,33 +6052,33 @@
       <c r="D105" s="21"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="hzTUK36PxnJcO4kF1LbfgwquV9rCDlV1+cyPBnN5F9huL/ceVnip3Rmtbqfy6KGhbzEqdc8mTCkVvZb/QRMlew==" saltValue="qVC76oah1Ka1Yc0F7fAnMw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="hgGOkk/EvZnKZIY1N6Kvc8sype27Y/In06EHufv0V9W1TbA/nDOi/WR8xVXuJN22O7at54Qsd+cRICgIDDkT1w==" saltValue="PRb14ZnFN89DrGXimz7Ziw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D40 C44:D67 C69:D105">
-    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="6" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="20" priority="6" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:D43">
-    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:D68">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D105">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D105" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -5691,10 +6089,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -6504,23 +6902,23 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="j6TDX0XSNuMTOKEbwHZFz8UWpjUtSgvj8kx4IjrhZ/H+Pi/v9KFfyi59tfWedyp2PLanpdgoWQdIw3E7FYgylA==" saltValue="XP5MrdogYz0n2uZLBQaOuw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D40 D13:D52 C9:C52 C44:D67">
-    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:D43">
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D67">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D67" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -6531,7 +6929,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
@@ -6796,15 +7194,15 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="xi6BLlWX5f9UgmZQ7DvvT6I6751ssmDWYZCcX32LUATeB+CZtEGxCd8sIDxvhagk0CpqRBB2182bVHJ7aihhhQ==" saltValue="iK/7K8JO5BcWTFizY1zoCw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D28">
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D28" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -6815,11 +7213,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6914,7 +7312,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -6935,7 +7333,7 @@
       </c>
       <c r="G11">
         <f>COUNTIFS(D8:D14,"No")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="s">
         <v>180</v>
@@ -6988,7 +7386,7 @@
       </c>
       <c r="G13" s="40">
         <f>(5-G11)/100</f>
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7088,17 +7486,17 @@
       <c r="D28" s="21"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1Yw5rVGSfB63iCq7IUTtdvw1xi0WTsttHiupGWYNk5D8EzPe3npTb2yB6c27M2tq306XFBjLofhS/6DosUm5dg==" saltValue="VNopPuCnga7IooHprXaIrA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="R/Vd3nUMNTFRsNudOeFNhhmfIEB2XfpEO+0NVyIxox1axtV1msz/bu/K7uXlpq1Io3TK2DBsncoZEMc1jJJSXQ==" saltValue="Ml9Fpvqbz7wEkqn6IVBneg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D28">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D28" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -7109,7 +7507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
@@ -7411,15 +7809,15 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="teEvzxKDkbes9wPcp0+cZTt8Wyi7aXUZECuliSBJUWtbHrytuR9A/tWNsaDmEBBCMfB6NzcoB7gM5r0X8f589g==" saltValue="l5Y6UZa5REz0l2NIBqP5ug==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D30">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D30" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -7430,11 +7828,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7515,7 +7913,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J9" s="34"/>
     </row>
@@ -7559,7 +7957,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -7580,7 +7978,7 @@
       </c>
       <c r="G13">
         <f>COUNTIFS(D8:D15,"No")</f>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -7594,7 +7992,7 @@
         <v>6</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F14" t="s">
         <v>156</v>
@@ -7621,7 +8019,7 @@
       </c>
       <c r="G15" s="40">
         <f>(5-G13)/100</f>
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -7684,17 +8082,17 @@
       <c r="D25" s="21"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="HhsE10KiQ7k8mkGFk1je+ckEGX3tmv76f/6+p7zvoDm+gRfXX9hpzpmlpP/jnxhWdleO12JTzjOatL/RLUR/Bg==" saltValue="jjjrx6pVg33GK0pkF5l/jQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Q+if7tUaEiYgo+mp9zOVbW9w/fS81pEJgVWi/ImCUmPCbdgnrG8MgBon0GKIDIbiAI+5lf+NuKOYH/eqRNCizQ==" saltValue="lIu8+c5Eurd5/Lmr0SwGzg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D25">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D25" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -7705,11 +8103,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7773,7 +8171,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>7</v>
@@ -7790,7 +8188,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J9" s="34"/>
     </row>
@@ -7841,7 +8239,7 @@
       </c>
       <c r="G12">
         <f>COUNTIFS(D8:D14,"No")</f>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -7875,7 +8273,7 @@
         <v>6</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F14" t="s">
         <v>85</v>
@@ -7945,17 +8343,17 @@
       <c r="D24" s="21"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5EcGPCaH/bw26pYWTDNiRjftL7cQDpzy984lioLOARrcA8Ajgj9KZC07DVUOQGwHWHSS84bZFQQBoTs66bQQqw==" saltValue="tfazJqyAKay9UPD9HdJtLA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="iTrt17vr8yRmQqmvswTN6APmxE1624IWlID15W8uUNuQeTxxDWxby4st2WvMc9zlfSYXBQH8NkqmOOiomQMffA==" saltValue="vv2owoDlbyCIJVkNHldTvg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D24">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D24" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>

--- a/Revisiones/Revisiones.xlsx
+++ b/Revisiones/Revisiones.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\NetBeansProjects\GituHub\ImprentaSoluciones\Revisiones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Avril\Documents\NetBeansProjects\GitHub\ImprentaSoluciones\Revisiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5059F2F3-5442-4DEB-9954-EF3274554752}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Revisión 1 COMPLETA" sheetId="1" r:id="rId1"/>
@@ -651,7 +650,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -1435,7 +1434,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1490,7 +1489,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1550,7 +1549,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD72BC36-EADE-4140-A13D-5F3D423C77F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DD72BC36-EADE-4140-A13D-5F3D423C77F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1605,7 +1604,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18C5C3EE-06E7-4191-9DEF-E4D508954E3F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18C5C3EE-06E7-4191-9DEF-E4D508954E3F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1665,7 +1664,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCDA3A5B-4725-4BC2-AAFA-AFA47A90D69C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FCDA3A5B-4725-4BC2-AAFA-AFA47A90D69C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1720,7 +1719,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{828FDC0F-D8D1-4407-9882-8B69DC4CEB97}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{828FDC0F-D8D1-4407-9882-8B69DC4CEB97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1780,7 +1779,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2AF4542-EC57-461A-9617-D9582128F664}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C2AF4542-EC57-461A-9617-D9582128F664}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1835,7 +1834,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09D22035-D217-4B6B-BDD7-2D97AF35EB1A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{09D22035-D217-4B6B-BDD7-2D97AF35EB1A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1895,7 +1894,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC3AEAA4-5EC4-403B-B8C3-5AA9BADDD21B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BC3AEAA4-5EC4-403B-B8C3-5AA9BADDD21B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1950,7 +1949,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F0F9472-47A6-4E90-96DA-73F44358B5FF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6F0F9472-47A6-4E90-96DA-73F44358B5FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2010,7 +2009,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00750F2F-8A61-440D-93C4-A1C903C0ACE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00750F2F-8A61-440D-93C4-A1C903C0ACE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2065,7 +2064,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E1B0B0E-DE4C-422D-B0D2-886824BC77EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9E1B0B0E-DE4C-422D-B0D2-886824BC77EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2125,7 +2124,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A0E2068-F95E-4C4A-9CAA-D80B6A5D616F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A0E2068-F95E-4C4A-9CAA-D80B6A5D616F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2180,7 +2179,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B37402EC-3282-4676-8076-50BAAE90DBE5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B37402EC-3282-4676-8076-50BAAE90DBE5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2240,7 +2239,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DA201B2-C55B-4B69-A9AE-2B432F0C9D64}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DA201B2-C55B-4B69-A9AE-2B432F0C9D64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2295,7 +2294,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E56C9406-225B-4A09-82BE-81570DA95ABD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E56C9406-225B-4A09-82BE-81570DA95ABD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2636,7 +2635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3246,7 +3245,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D52" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D52">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -3256,11 +3255,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E586AF78-6D66-48EB-82AD-D00FC40A4A7A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3493,7 +3492,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D21" xr:uid="{0DA16AC5-4096-4358-B48F-662F8E0D8520}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D21">
       <formula1>$K$7:$K$7</formula1>
     </dataValidation>
   </dataValidations>
@@ -3504,7 +3503,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4709,7 +4708,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D94" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D94">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -4719,7 +4718,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView topLeftCell="A84" workbookViewId="0">
@@ -6078,7 +6077,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D105" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D105">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -6089,7 +6088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
@@ -6918,7 +6917,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D67" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D67">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -6929,7 +6928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
@@ -7202,7 +7201,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D28" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D28">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -7213,7 +7212,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
@@ -7496,7 +7495,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D28" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D28">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -7507,7 +7506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
@@ -7817,7 +7816,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D30" xr:uid="{00000000-0002-0000-0600-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D30">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -7828,7 +7827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
@@ -8092,7 +8091,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D25" xr:uid="{00000000-0002-0000-0700-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D25">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -8103,7 +8102,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
@@ -8353,7 +8352,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D24" xr:uid="{00000000-0002-0000-0800-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D24">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>

--- a/Revisiones/Revisiones.xlsx
+++ b/Revisiones/Revisiones.xlsx
@@ -1434,7 +1434,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1489,7 +1489,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1549,7 +1549,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DD72BC36-EADE-4140-A13D-5F3D423C77F7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD72BC36-EADE-4140-A13D-5F3D423C77F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1604,7 +1604,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18C5C3EE-06E7-4191-9DEF-E4D508954E3F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18C5C3EE-06E7-4191-9DEF-E4D508954E3F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1664,7 +1664,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FCDA3A5B-4725-4BC2-AAFA-AFA47A90D69C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCDA3A5B-4725-4BC2-AAFA-AFA47A90D69C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1719,7 +1719,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{828FDC0F-D8D1-4407-9882-8B69DC4CEB97}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{828FDC0F-D8D1-4407-9882-8B69DC4CEB97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1779,7 +1779,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C2AF4542-EC57-461A-9617-D9582128F664}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2AF4542-EC57-461A-9617-D9582128F664}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1834,7 +1834,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{09D22035-D217-4B6B-BDD7-2D97AF35EB1A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09D22035-D217-4B6B-BDD7-2D97AF35EB1A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1894,7 +1894,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BC3AEAA4-5EC4-403B-B8C3-5AA9BADDD21B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC3AEAA4-5EC4-403B-B8C3-5AA9BADDD21B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1949,7 +1949,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6F0F9472-47A6-4E90-96DA-73F44358B5FF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F0F9472-47A6-4E90-96DA-73F44358B5FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2009,7 +2009,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00750F2F-8A61-440D-93C4-A1C903C0ACE9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00750F2F-8A61-440D-93C4-A1C903C0ACE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2064,7 +2064,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9E1B0B0E-DE4C-422D-B0D2-886824BC77EB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E1B0B0E-DE4C-422D-B0D2-886824BC77EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2124,7 +2124,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A0E2068-F95E-4C4A-9CAA-D80B6A5D616F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A0E2068-F95E-4C4A-9CAA-D80B6A5D616F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2179,7 +2179,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B37402EC-3282-4676-8076-50BAAE90DBE5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B37402EC-3282-4676-8076-50BAAE90DBE5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2239,7 +2239,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DA201B2-C55B-4B69-A9AE-2B432F0C9D64}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DA201B2-C55B-4B69-A9AE-2B432F0C9D64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2294,7 +2294,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E56C9406-225B-4A09-82BE-81570DA95ABD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E56C9406-225B-4A09-82BE-81570DA95ABD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3259,7 +3259,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3412,7 +3412,7 @@
         <v>200</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>7</v>
@@ -8105,8 +8105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Revisiones/Revisiones.xlsx
+++ b/Revisiones/Revisiones.xlsx
@@ -1434,7 +1434,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1489,7 +1489,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1549,7 +1549,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD72BC36-EADE-4140-A13D-5F3D423C77F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DD72BC36-EADE-4140-A13D-5F3D423C77F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1604,7 +1604,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18C5C3EE-06E7-4191-9DEF-E4D508954E3F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18C5C3EE-06E7-4191-9DEF-E4D508954E3F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1664,7 +1664,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCDA3A5B-4725-4BC2-AAFA-AFA47A90D69C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FCDA3A5B-4725-4BC2-AAFA-AFA47A90D69C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1719,7 +1719,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{828FDC0F-D8D1-4407-9882-8B69DC4CEB97}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{828FDC0F-D8D1-4407-9882-8B69DC4CEB97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1779,7 +1779,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2AF4542-EC57-461A-9617-D9582128F664}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C2AF4542-EC57-461A-9617-D9582128F664}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1834,7 +1834,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09D22035-D217-4B6B-BDD7-2D97AF35EB1A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{09D22035-D217-4B6B-BDD7-2D97AF35EB1A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1894,7 +1894,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC3AEAA4-5EC4-403B-B8C3-5AA9BADDD21B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BC3AEAA4-5EC4-403B-B8C3-5AA9BADDD21B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1949,7 +1949,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F0F9472-47A6-4E90-96DA-73F44358B5FF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6F0F9472-47A6-4E90-96DA-73F44358B5FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2009,7 +2009,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00750F2F-8A61-440D-93C4-A1C903C0ACE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00750F2F-8A61-440D-93C4-A1C903C0ACE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2064,7 +2064,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E1B0B0E-DE4C-422D-B0D2-886824BC77EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9E1B0B0E-DE4C-422D-B0D2-886824BC77EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2124,7 +2124,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A0E2068-F95E-4C4A-9CAA-D80B6A5D616F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A0E2068-F95E-4C4A-9CAA-D80B6A5D616F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2179,7 +2179,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B37402EC-3282-4676-8076-50BAAE90DBE5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B37402EC-3282-4676-8076-50BAAE90DBE5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2239,7 +2239,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DA201B2-C55B-4B69-A9AE-2B432F0C9D64}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DA201B2-C55B-4B69-A9AE-2B432F0C9D64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2294,7 +2294,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E56C9406-225B-4A09-82BE-81570DA95ABD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E56C9406-225B-4A09-82BE-81570DA95ABD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3259,7 +3259,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3320,7 +3320,7 @@
         <v>195</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>7</v>
@@ -3335,7 +3335,7 @@
         <v>196</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>7</v>
@@ -3349,7 +3349,7 @@
         <v>195</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>7</v>
@@ -3363,7 +3363,7 @@
         <v>196</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>7</v>
@@ -8106,7 +8106,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8199,7 +8199,7 @@
         <v>195</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>7</v>
@@ -8214,7 +8214,7 @@
         <v>196</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>7</v>
@@ -8228,7 +8228,7 @@
         <v>195</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>7</v>
@@ -8249,7 +8249,7 @@
         <v>196</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>7</v>

--- a/Revisiones/Revisiones.xlsx
+++ b/Revisiones/Revisiones.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Avril\Documents\NetBeansProjects\GitHub\ImprentaSoluciones\Revisiones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erika\Documents\NetBeansProjects\GituHub\Actualización Tecnologica\ImprentaSoluciones\Revisiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Revisión 1 COMPLETA" sheetId="1" r:id="rId1"/>
@@ -650,7 +650,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -1434,7 +1434,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1489,7 +1489,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1549,7 +1549,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DD72BC36-EADE-4140-A13D-5F3D423C77F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD72BC36-EADE-4140-A13D-5F3D423C77F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1604,7 +1604,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18C5C3EE-06E7-4191-9DEF-E4D508954E3F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18C5C3EE-06E7-4191-9DEF-E4D508954E3F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1664,7 +1664,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FCDA3A5B-4725-4BC2-AAFA-AFA47A90D69C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCDA3A5B-4725-4BC2-AAFA-AFA47A90D69C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1719,7 +1719,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{828FDC0F-D8D1-4407-9882-8B69DC4CEB97}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{828FDC0F-D8D1-4407-9882-8B69DC4CEB97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1779,7 +1779,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C2AF4542-EC57-461A-9617-D9582128F664}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2AF4542-EC57-461A-9617-D9582128F664}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1834,7 +1834,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{09D22035-D217-4B6B-BDD7-2D97AF35EB1A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09D22035-D217-4B6B-BDD7-2D97AF35EB1A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1894,7 +1894,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BC3AEAA4-5EC4-403B-B8C3-5AA9BADDD21B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC3AEAA4-5EC4-403B-B8C3-5AA9BADDD21B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1949,7 +1949,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6F0F9472-47A6-4E90-96DA-73F44358B5FF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F0F9472-47A6-4E90-96DA-73F44358B5FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2009,7 +2009,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00750F2F-8A61-440D-93C4-A1C903C0ACE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00750F2F-8A61-440D-93C4-A1C903C0ACE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2064,7 +2064,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9E1B0B0E-DE4C-422D-B0D2-886824BC77EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E1B0B0E-DE4C-422D-B0D2-886824BC77EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2124,7 +2124,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A0E2068-F95E-4C4A-9CAA-D80B6A5D616F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A0E2068-F95E-4C4A-9CAA-D80B6A5D616F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2179,7 +2179,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B37402EC-3282-4676-8076-50BAAE90DBE5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B37402EC-3282-4676-8076-50BAAE90DBE5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2239,7 +2239,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DA201B2-C55B-4B69-A9AE-2B432F0C9D64}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DA201B2-C55B-4B69-A9AE-2B432F0C9D64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2294,7 +2294,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E56C9406-225B-4A09-82BE-81570DA95ABD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E56C9406-225B-4A09-82BE-81570DA95ABD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3258,7 +3258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -3377,7 +3377,7 @@
         <v>198</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>7</v>
@@ -3391,7 +3391,7 @@
         <v>199</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>7</v>
@@ -3432,7 +3432,7 @@
         <v>201</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>7</v>
@@ -7830,8 +7830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7967,7 +7967,7 @@
         <v>189</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>7</v>
@@ -8008,7 +8008,7 @@
         <v>191</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>7</v>
@@ -8105,7 +8105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
